--- a/months/oct23/oct23.xlsx
+++ b/months/oct23/oct23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="245">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">Условия: какие-то поделки, логопедия, азбука, счет, настольные игры</t>
   </si>
   <si>
-    <t xml:space="preserve">Разрешается дробить коридор по 0.5. Туалет, ванная по 0.5</t>
+    <t xml:space="preserve">Разрешается дробить коридор по 0.5. Туалет, ванная по 0.5. Результат с округлением вниз</t>
   </si>
   <si>
     <t xml:space="preserve">Условия: после сеанса не должно остаться грязной посуды (искл: сковорода многократного применения: чтоб вкуснее…)</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">time</t>
   </si>
   <si>
-    <t xml:space="preserve">range(0,6.5,0.5)</t>
+    <t xml:space="preserve">range(0,7,1)</t>
   </si>
   <si>
     <t xml:space="preserve">range(0,6,1)</t>
@@ -824,10 +824,7 @@
     <t xml:space="preserve">range(0,10,1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Range(-5,5,1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range(0,7,1)</t>
+    <t xml:space="preserve">range(-5,5,1)</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1046,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1079,10 +1076,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,7 +1658,7 @@
   </sheetPr>
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
@@ -1673,7 +1666,7 @@
       <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -1862,125 +1855,125 @@
         <f aca="false">price!AF1</f>
         <v>l:meals</v>
       </c>
-      <c r="AO1" s="8" t="str">
+      <c r="AO1" s="6" t="str">
         <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AN1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AN1,#REF!,0)+1)), "")</f>
         <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="8" t="n">
         <v>45200</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A2,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="S2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="10" t="s">
+      <c r="W2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>-4</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AF2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AK2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AL2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="AM2" s="0" t="n">
@@ -1988,119 +1981,119 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="8" t="n">
         <v>45201</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A3,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="11" t="s">
+      <c r="S3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="10" t="s">
+      <c r="W3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AF3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AK3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AL3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="AM3" s="0" t="n">
@@ -2108,2068 +2101,2068 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="8" t="n">
         <v>45202</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A4,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="P4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="11" t="s">
+      <c r="S4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="10" t="s">
+      <c r="W4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AF4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AK4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AL4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="8" t="n">
         <v>45203</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A5,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="11" t="s">
+      <c r="S5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="10" t="s">
+      <c r="W5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AF5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AF5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AH5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="10" t="s">
+      <c r="AK5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AL5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="8" t="n">
         <v>45204</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A6,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="10" t="s">
+      <c r="Q6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="11" t="s">
+      <c r="S6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="10" t="s">
+      <c r="W6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AC6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AE6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AF6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AF6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AH6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI6" s="10" t="s">
+      <c r="AH6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AJ6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK6" s="10" t="s">
+      <c r="AJ6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM6" s="10" t="s">
+      <c r="AL6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="8" t="n">
         <v>45205</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A7,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" s="10" t="s">
+      <c r="Q7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="11" t="s">
+      <c r="S7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="10" t="s">
+      <c r="W7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA7" s="10" t="s">
+      <c r="Z7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AC7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AE7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AF7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG7" s="10" t="s">
+      <c r="AF7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AH7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI7" s="10" t="s">
+      <c r="AH7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="10" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK7" s="10" t="s">
+      <c r="AK7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AL7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="8" t="n">
         <v>45206</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A8,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="10" t="s">
+      <c r="P8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="11" t="s">
+      <c r="S8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="10" t="s">
+      <c r="W8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA8" s="10" t="s">
+      <c r="Z8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AC8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AD8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AF8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AF8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AH8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="10" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK8" s="10" t="s">
+      <c r="AK8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM8" s="10" t="s">
+      <c r="AL8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="8" t="n">
         <v>45207</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A9,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="10" t="s">
+      <c r="P9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="11" t="s">
+      <c r="S9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="10" t="s">
+      <c r="W9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="10" t="s">
+      <c r="Z9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AC9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AE9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AF9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG9" s="10" t="s">
+      <c r="AF9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AH9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI9" s="10" t="s">
+      <c r="AH9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AJ9" s="10" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK9" s="10" t="s">
+      <c r="AK9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AL9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM9" s="10" t="s">
+      <c r="AL9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="8" t="n">
         <v>45208</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="10" t="s">
+      <c r="Q10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" s="11" t="s">
+      <c r="S10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="10" t="s">
+      <c r="W10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA10" s="10" t="s">
+      <c r="Z10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD10" s="10" t="s">
+      <c r="AC10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE10" s="10" t="s">
+      <c r="AE10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AF10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG10" s="10" t="s">
+      <c r="AF10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AH10" s="11" t="s">
+      <c r="AH10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AI10" s="10" t="s">
+      <c r="AI10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AJ10" s="10" t="s">
+      <c r="AJ10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK10" s="10" t="s">
+      <c r="AK10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AL10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM10" s="10" t="s">
+      <c r="AL10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="8" t="n">
         <v>45209</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="8" t="n">
         <v>45210</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
+      <c r="H12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="8" t="n">
         <v>45211</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
+      <c r="H13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="8" t="n">
         <v>45212</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
+      <c r="H14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="8" t="n">
         <v>45213</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="8" t="n">
         <v>45214</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="8" t="n">
         <v>45215</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
+      <c r="H17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="8" t="n">
         <v>45216</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
+      <c r="H18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="8" t="n">
         <v>45217</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="12"/>
+      <c r="H19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="8" t="n">
         <v>45218</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
+      <c r="H20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="8" t="n">
         <v>45219</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
+      <c r="H21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="8" t="n">
         <v>45220</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="8" t="n">
         <v>45221</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
+      <c r="F23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="8" t="n">
         <v>45222</v>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
+      <c r="H24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="8" t="n">
         <v>45223</v>
       </c>
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="12" t="n">
         <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="8" t="n">
         <v>45224</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="12" t="n">
         <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="8" t="n">
         <v>45225</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="12" t="n">
         <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="8" t="n">
         <v>45226</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="12" t="n">
         <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="8" t="n">
         <v>45227</v>
       </c>
-      <c r="B29" s="13" t="n">
+      <c r="B29" s="12" t="n">
         <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="F29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="8" t="n">
         <v>45228</v>
       </c>
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="12" t="n">
         <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="8" t="n">
         <v>45229</v>
       </c>
-      <c r="B31" s="13" t="n">
+      <c r="B31" s="12" t="n">
         <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="8" t="n">
         <v>45230</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="12" t="n">
         <f aca="false">IFERROR(WEEKDAY(A32,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AI17:AL17 O17:AG17 AK25 O25:Y32 A3:A32 F6:F7 O18:AM24 F4 F9:F14 F16:F31 F3:G3 H3:N32 G4:G32 A32:F32 A2:E31 F2:AA2 AC2:AM2 A1:AM1 O3:AM16">
@@ -4287,913 +4280,913 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="27.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="15" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="14" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="14" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="14" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="14" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="str">
+      <c r="A1" s="15" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="16" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="18" t="str">
+      <c r="C1" s="17" t="str">
         <f aca="false">vedomost!F1</f>
         <v>DUTY</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="n">
+      <c r="A2" s="22" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45200</v>
       </c>
-      <c r="B2" s="24" t="n">
+      <c r="B2" s="23" t="n">
         <f aca="false">vedomost!B2</f>
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="str">
+      <c r="C2" s="16" t="str">
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="G2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="n">
+      <c r="A3" s="22" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45201</v>
       </c>
-      <c r="B3" s="24" t="n">
+      <c r="B3" s="23" t="n">
         <f aca="false">vedomost!B3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C3" s="16" t="str">
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v>-</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="n">
+      <c r="A4" s="22" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45202</v>
       </c>
-      <c r="B4" s="24" t="n">
+      <c r="B4" s="23" t="n">
         <f aca="false">vedomost!B4</f>
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C4" s="16" t="str">
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
+      <c r="A5" s="22" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45203</v>
       </c>
-      <c r="B5" s="24" t="n">
+      <c r="B5" s="23" t="n">
         <f aca="false">vedomost!B5</f>
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C5" s="16" t="str">
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
         <v>-</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="n">
+      <c r="A6" s="22" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45204</v>
       </c>
-      <c r="B6" s="24" t="n">
+      <c r="B6" s="23" t="n">
         <f aca="false">vedomost!B6</f>
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="16" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
         <v>-</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="n">
+      <c r="A7" s="22" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45205</v>
       </c>
-      <c r="B7" s="24" t="n">
+      <c r="B7" s="23" t="n">
         <f aca="false">vedomost!B7</f>
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="16" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
         <v>-</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
+      <c r="A8" s="22" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45206</v>
       </c>
-      <c r="B8" s="24" t="n">
+      <c r="B8" s="23" t="n">
         <f aca="false">vedomost!B8</f>
         <v>6</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="16" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
         <v>-</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="30" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+      <c r="A9" s="22" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45207</v>
       </c>
-      <c r="B9" s="24" t="n">
+      <c r="B9" s="23" t="n">
         <f aca="false">vedomost!B9</f>
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="16" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="n">
+      <c r="A10" s="22" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45208</v>
       </c>
-      <c r="B10" s="24" t="n">
+      <c r="B10" s="23" t="n">
         <f aca="false">vedomost!B10</f>
         <v>1</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="16" t="str">
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="30" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
+      <c r="A11" s="22" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45209</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="23" t="n">
         <f aca="false">vedomost!B11</f>
         <v>2</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="16" t="str">
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
         <v>-</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="15" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
+      <c r="A12" s="22" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45210</v>
       </c>
-      <c r="B12" s="24" t="n">
+      <c r="B12" s="23" t="n">
         <f aca="false">vedomost!B12</f>
         <v>3</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="16" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
         <v>-</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="F12" s="25" t="s">
+      <c r="D12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="30" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="n">
+      <c r="A13" s="22" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45211</v>
       </c>
-      <c r="B13" s="24" t="n">
+      <c r="B13" s="23" t="n">
         <f aca="false">vedomost!B13</f>
         <v>4</v>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="16" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v>Ed8()</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="30" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
+      <c r="A14" s="22" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45212</v>
       </c>
-      <c r="B14" s="24" t="n">
+      <c r="B14" s="23" t="n">
         <f aca="false">vedomost!B14</f>
         <v>5</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="16" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="F14" s="25" t="s">
+      <c r="D14" s="24"/>
+      <c r="F14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="22" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45213</v>
       </c>
-      <c r="B15" s="24" t="n">
+      <c r="B15" s="23" t="n">
         <f aca="false">vedomost!B15</f>
         <v>6</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="16" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v>-</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="30" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="n">
+      <c r="A16" s="22" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45214</v>
       </c>
-      <c r="B16" s="24" t="n">
+      <c r="B16" s="23" t="n">
         <f aca="false">vedomost!B16</f>
         <v>7</v>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="16" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="30" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
+      <c r="A17" s="22" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45215</v>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="23" t="n">
         <f aca="false">vedomost!B17</f>
         <v>1</v>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="16" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v>-</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="n">
+      <c r="A18" s="22" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45216</v>
       </c>
-      <c r="B18" s="24" t="n">
+      <c r="B18" s="23" t="n">
         <f aca="false">vedomost!B18</f>
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="16" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v>-</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="D18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="17" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="n">
+      <c r="A19" s="22" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45217</v>
       </c>
-      <c r="B19" s="24" t="n">
+      <c r="B19" s="23" t="n">
         <f aca="false">vedomost!B19</f>
         <v>3</v>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="16" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="30" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="n">
+      <c r="A20" s="22" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45218</v>
       </c>
-      <c r="B20" s="24" t="n">
+      <c r="B20" s="23" t="n">
         <f aca="false">vedomost!B20</f>
         <v>4</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="16" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v>Ed8()</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="F20" s="25" t="s">
+      <c r="D20" s="24"/>
+      <c r="F20" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="26" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="n">
+      <c r="A21" s="22" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45219</v>
       </c>
-      <c r="B21" s="24" t="n">
+      <c r="B21" s="23" t="n">
         <f aca="false">vedomost!B21</f>
         <v>5</v>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C21" s="16" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v>-</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="n">
+      <c r="A22" s="22" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45220</v>
       </c>
-      <c r="B22" s="24" t="n">
+      <c r="B22" s="23" t="n">
         <f aca="false">vedomost!B22</f>
         <v>6</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="16" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="F22" s="25" t="s">
+      <c r="D22" s="24"/>
+      <c r="F22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="n">
+      <c r="A23" s="22" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45221</v>
       </c>
-      <c r="B23" s="24" t="n">
+      <c r="B23" s="23" t="n">
         <f aca="false">vedomost!B23</f>
         <v>7</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="16" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v>-</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="n">
+      <c r="A24" s="22" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45222</v>
       </c>
-      <c r="B24" s="24" t="n">
+      <c r="B24" s="23" t="n">
         <f aca="false">vedomost!B24</f>
         <v>1</v>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C24" s="16" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26" t="s">
+      <c r="H24" s="28"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="n">
+      <c r="A25" s="22" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45223</v>
       </c>
-      <c r="B25" s="24" t="n">
+      <c r="B25" s="23" t="n">
         <f aca="false">vedomost!B25</f>
         <v>2</v>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="16" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v>Ed8()</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26" t="s">
+      <c r="G25" s="24"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="n">
+      <c r="A26" s="22" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45224</v>
       </c>
-      <c r="B26" s="24" t="n">
+      <c r="B26" s="23" t="n">
         <f aca="false">vedomost!B26</f>
         <v>3</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="16" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v>-</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="n">
+      <c r="A27" s="22" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45225</v>
       </c>
-      <c r="B27" s="24" t="n">
+      <c r="B27" s="23" t="n">
         <f aca="false">vedomost!B27</f>
         <v>4</v>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="16" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v>Ed8()</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="28"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="n">
+      <c r="A28" s="22" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45226</v>
       </c>
-      <c r="B28" s="24" t="n">
+      <c r="B28" s="23" t="n">
         <f aca="false">vedomost!B28</f>
         <v>5</v>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="16" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="n">
+      <c r="A29" s="22" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45227</v>
       </c>
-      <c r="B29" s="24" t="n">
+      <c r="B29" s="23" t="n">
         <f aca="false">vedomost!B29</f>
         <v>6</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="16" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v>-</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="F29" s="25" t="s">
+      <c r="D29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="28"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="n">
+      <c r="A30" s="22" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45228</v>
       </c>
-      <c r="B30" s="24" t="n">
+      <c r="B30" s="23" t="n">
         <f aca="false">vedomost!B30</f>
         <v>7</v>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="16" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="28"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="n">
+      <c r="A31" s="22" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45229</v>
       </c>
-      <c r="B31" s="24" t="n">
+      <c r="B31" s="23" t="n">
         <f aca="false">vedomost!B31</f>
         <v>1</v>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C31" s="16" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v>-</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="28"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="n">
+      <c r="A32" s="22" t="n">
         <f aca="false">vedomost!A32</f>
         <v>45230</v>
       </c>
-      <c r="B32" s="24" t="n">
+      <c r="B32" s="23" t="n">
         <f aca="false">vedomost!B32</f>
         <v>2</v>
       </c>
-      <c r="C32" s="17" t="str">
+      <c r="C32" s="16" t="str">
         <f aca="false">IF(vedomost!F32=0,"",vedomost!F32)</f>
         <v>-</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="28"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -5232,15 +5225,15 @@
   </sheetPr>
   <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.14"/>
@@ -5271,1232 +5264,1232 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AA1" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AD1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AE1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Y2" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AD2" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AE2" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AF2" s="42" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="W3" s="48" t="s">
+      <c r="W3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="X3" s="48" t="s">
+      <c r="X3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="Y3" s="48" t="s">
+      <c r="Y3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" s="48" t="s">
+      <c r="Z3" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="AA3" s="48" t="s">
+      <c r="AA3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" s="48" t="s">
+      <c r="AB3" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" s="48" t="s">
+      <c r="AD3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AE3" s="48" t="s">
+      <c r="AE3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AF3" s="48" t="s">
+      <c r="AF3" s="47" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="T4" s="59" t="s">
+      <c r="T4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="W4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="X4" s="59" t="s">
+      <c r="X4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="Y4" s="59" t="s">
+      <c r="Y4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="58" t="s">
+      <c r="Z4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="AA4" s="57" t="s">
+      <c r="AA4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="AB4" s="59" t="s">
+      <c r="AB4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="AC4" s="59" t="s">
+      <c r="AC4" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" s="59" t="s">
+      <c r="AD4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AE4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="AF4" s="58" t="s">
+      <c r="AF4" s="57" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="53" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="53" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="66" t="s">
+      <c r="S5" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="T5" s="67" t="s">
+      <c r="T5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="U5" s="67" t="s">
+      <c r="U5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="V5" s="67" t="s">
+      <c r="V5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="W5" s="67" t="s">
+      <c r="W5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="X5" s="67" t="s">
+      <c r="X5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Y5" s="67" t="s">
+      <c r="Y5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Z5" s="65" t="s">
+      <c r="Z5" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="AA5" s="66" t="s">
+      <c r="AA5" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" s="67" t="s">
+      <c r="AB5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="AC5" s="67" t="s">
+      <c r="AC5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="AD5" s="67" t="s">
+      <c r="AD5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="AE5" s="67" t="s">
+      <c r="AE5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="AF5" s="65" t="s">
+      <c r="AF5" s="64" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="75" t="s">
+      <c r="N6" s="69"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="U6" s="75"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="75" t="s">
+      <c r="U6" s="74"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="77" t="s">
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="AB6" s="75" t="s">
+      <c r="AB6" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="75" t="s">
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="AE6" s="75" t="s">
+      <c r="AE6" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="AF6" s="75" t="s">
+      <c r="AF6" s="74" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="84" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="T7" s="85" t="s">
+      <c r="T7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="U7" s="85" t="s">
+      <c r="U7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="V7" s="85" t="s">
+      <c r="V7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="W7" s="85" t="s">
+      <c r="W7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="X7" s="85" t="s">
+      <c r="X7" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="Y7" s="85" t="s">
+      <c r="Y7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="Z7" s="86" t="s">
+      <c r="Z7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="AA7" s="84" t="s">
+      <c r="AA7" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="AB7" s="85" t="s">
+      <c r="AB7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="AC7" s="85" t="s">
+      <c r="AC7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="AD7" s="85" t="s">
+      <c r="AD7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="AE7" s="85" t="s">
+      <c r="AE7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="AF7" s="86" t="s">
+      <c r="AF7" s="85" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63" t="s">
+      <c r="I8" s="62"/>
+      <c r="J8" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="N8" s="80" t="s">
+      <c r="N8" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="82" t="s">
+      <c r="O8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="82" t="s">
+      <c r="P8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="Q8" s="81" t="s">
+      <c r="Q8" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="R8" s="83" t="s">
+      <c r="R8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="S8" s="80" t="s">
+      <c r="S8" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="T8" s="82" t="s">
+      <c r="T8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="U8" s="82" t="s">
+      <c r="U8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="V8" s="82" t="s">
+      <c r="V8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="W8" s="82" t="s">
+      <c r="W8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82" t="s">
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" s="81" t="s">
+      <c r="Z8" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" s="80" t="s">
+      <c r="AA8" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="AB8" s="82" t="s">
+      <c r="AB8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="AC8" s="82" t="s">
+      <c r="AC8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82" t="s">
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="AF8" s="81" t="s">
+      <c r="AF8" s="80" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="88" t="s">
+      <c r="L9" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="91" t="s">
+      <c r="N9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="O9" s="93" t="s">
+      <c r="O9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="P9" s="93" t="s">
+      <c r="P9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="Q9" s="92" t="s">
+      <c r="Q9" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="94" t="s">
+      <c r="R9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="S9" s="91" t="s">
+      <c r="S9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="T9" s="93" t="s">
+      <c r="T9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="U9" s="93" t="s">
+      <c r="U9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="V9" s="93" t="s">
+      <c r="V9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="W9" s="93" t="s">
+      <c r="W9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="X9" s="93" t="s">
+      <c r="X9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="Y9" s="93" t="s">
+      <c r="Y9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="Z9" s="92" t="s">
+      <c r="Z9" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="AA9" s="91" t="s">
+      <c r="AA9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="AB9" s="93" t="s">
+      <c r="AB9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="AC9" s="93" t="s">
+      <c r="AC9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="AD9" s="93" t="s">
+      <c r="AD9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="AE9" s="93" t="s">
+      <c r="AE9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="AF9" s="92" t="s">
+      <c r="AF9" s="91" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="L10" s="96" t="s">
+      <c r="L10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="M10" s="99" t="s">
+      <c r="M10" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="N10" s="98" t="s">
+      <c r="N10" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="O10" s="100" t="s">
+      <c r="O10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="P10" s="100" t="s">
+      <c r="P10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="Q10" s="99" t="s">
+      <c r="Q10" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="R10" s="101" t="s">
+      <c r="R10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="S10" s="98" t="s">
+      <c r="S10" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="T10" s="100" t="s">
+      <c r="T10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="U10" s="100" t="s">
+      <c r="U10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100" t="s">
+      <c r="V10" s="99"/>
+      <c r="W10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="X10" s="100" t="s">
+      <c r="X10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="Y10" s="100" t="s">
+      <c r="Y10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="Z10" s="99" t="s">
+      <c r="Z10" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AA10" s="98" t="s">
+      <c r="AA10" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="AB10" s="100" t="s">
+      <c r="AB10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100" t="s">
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AE10" s="100" t="s">
+      <c r="AE10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AF10" s="99" t="s">
+      <c r="AF10" s="98" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="102" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="H11" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102" t="s">
+      <c r="I11" s="101"/>
+      <c r="J11" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="106" t="s">
+      <c r="K11" s="101"/>
+      <c r="L11" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="107"/>
-      <c r="N11" s="108" t="s">
+      <c r="M11" s="106"/>
+      <c r="N11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108" t="s">
+      <c r="O11" s="107"/>
+      <c r="P11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="Q11" s="107" t="s">
+      <c r="Q11" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="R11" s="109" t="s">
+      <c r="R11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="S11" s="105" t="s">
+      <c r="S11" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="T11" s="105" t="s">
+      <c r="T11" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108" t="s">
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="X11" s="108" t="s">
+      <c r="X11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="Y11" s="108" t="s">
+      <c r="Y11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="Z11" s="108" t="s">
+      <c r="Z11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="AA11" s="105" t="s">
+      <c r="AA11" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="AB11" s="105" t="s">
+      <c r="AB11" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="108" t="s">
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="AE11" s="108" t="s">
+      <c r="AE11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="AF11" s="108" t="s">
+      <c r="AF11" s="107" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="102" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102" t="s">
+      <c r="I12" s="101"/>
+      <c r="J12" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="106" t="s">
+      <c r="K12" s="101"/>
+      <c r="L12" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="107"/>
-      <c r="N12" s="108" t="s">
+      <c r="M12" s="106"/>
+      <c r="N12" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108" t="s">
+      <c r="O12" s="107"/>
+      <c r="P12" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="107" t="s">
+      <c r="Q12" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="R12" s="109" t="s">
+      <c r="R12" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="S12" s="105" t="s">
+      <c r="S12" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="T12" s="105" t="s">
+      <c r="T12" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108" t="s">
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="X12" s="108" t="s">
+      <c r="X12" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="Y12" s="108" t="s">
+      <c r="Y12" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="Z12" s="108" t="s">
+      <c r="Z12" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="AA12" s="105" t="s">
+      <c r="AA12" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="AB12" s="105" t="s">
+      <c r="AB12" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108" t="s">
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="AE12" s="108" t="s">
+      <c r="AE12" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="AF12" s="108" t="s">
+      <c r="AF12" s="107" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="102" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="102" t="n">
+      <c r="F13" s="101" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="102" t="n">
+      <c r="H13" s="101" t="n">
         <v>3</v>
       </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102" t="n">
+      <c r="I13" s="101"/>
+      <c r="J13" s="101" t="n">
         <v>3</v>
       </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="106" t="s">
+      <c r="K13" s="101"/>
+      <c r="L13" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108" t="s">
+      <c r="M13" s="106"/>
+      <c r="N13" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108" t="n">
+      <c r="O13" s="107"/>
+      <c r="P13" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" s="110" t="n">
+      <c r="Q13" s="109" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="109" t="s">
+      <c r="R13" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="111" t="n">
+      <c r="S13" s="110" t="n">
         <v>3</v>
       </c>
-      <c r="T13" s="111" t="s">
+      <c r="T13" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108" t="s">
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="X13" s="108" t="n">
+      <c r="X13" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="Y13" s="108" t="s">
+      <c r="Y13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="Z13" s="108" t="s">
+      <c r="Z13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AA13" s="111" t="n">
+      <c r="AA13" s="110" t="n">
         <v>3</v>
       </c>
-      <c r="AB13" s="111" t="s">
+      <c r="AB13" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108" t="n">
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="AE13" s="108" t="s">
+      <c r="AE13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AF13" s="108" t="s">
+      <c r="AF13" s="107" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="102" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="102" t="n">
+      <c r="E14" s="101" t="n">
         <v>25</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="F14" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="102" t="n">
+      <c r="H14" s="101" t="n">
         <v>25</v>
       </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102" t="s">
+      <c r="I14" s="101"/>
+      <c r="J14" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="106" t="n">
+      <c r="K14" s="101"/>
+      <c r="L14" s="105" t="n">
         <v>100</v>
       </c>
-      <c r="M14" s="107"/>
-      <c r="N14" s="108" t="s">
+      <c r="M14" s="106"/>
+      <c r="N14" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108" t="s">
+      <c r="O14" s="107"/>
+      <c r="P14" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="Q14" s="110" t="s">
+      <c r="Q14" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="R14" s="109" t="s">
+      <c r="R14" s="108" t="s">
         <v>187</v>
       </c>
-      <c r="S14" s="111" t="s">
+      <c r="S14" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="111" t="s">
+      <c r="T14" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108" t="s">
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="X14" s="108" t="n">
+      <c r="X14" s="107" t="n">
         <v>25</v>
       </c>
-      <c r="Y14" s="108" t="s">
+      <c r="Y14" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="Z14" s="108" t="s">
+      <c r="Z14" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="AA14" s="111" t="s">
+      <c r="AA14" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="AB14" s="111" t="s">
+      <c r="AB14" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108" t="s">
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="AE14" s="108" t="s">
+      <c r="AE14" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" s="108" t="s">
+      <c r="AF14" s="107" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="111" t="s">
         <v>190</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -6584,7 +6577,7 @@
       <c r="C17" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="112" t="s">
         <v>204</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -6593,55 +6586,55 @@
       <c r="F17" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="112" t="s">
         <v>207</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="I17" s="113" t="s">
+      <c r="I17" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="J17" s="113" t="s">
+      <c r="J17" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="113" t="s">
+      <c r="K17" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="L17" s="113" t="s">
+      <c r="L17" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="M17" s="113" t="s">
+      <c r="M17" s="112" t="s">
         <v>213</v>
       </c>
-      <c r="N17" s="113" t="s">
+      <c r="N17" s="112" t="s">
         <v>214</v>
       </c>
-      <c r="O17" s="113" t="s">
+      <c r="O17" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="P17" s="113" t="s">
+      <c r="P17" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="Q17" s="113" t="s">
+      <c r="Q17" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="R17" s="113" t="s">
+      <c r="R17" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="AA17" s="113" t="s">
+      <c r="AA17" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="AB17" s="113" t="s">
+      <c r="AB17" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="AC17" s="113" t="s">
+      <c r="AC17" s="112" t="s">
         <v>221</v>
       </c>
       <c r="AD17" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="AE17" s="113" t="s">
+      <c r="AE17" s="112" t="s">
         <v>223</v>
       </c>
       <c r="AF17" s="0" t="s">
@@ -6652,40 +6645,40 @@
       <c r="A18" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="113" t="s">
+      <c r="G18" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="113" t="s">
+      <c r="H18" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="K18" s="113" t="s">
+      <c r="K18" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="114" t="s">
+      <c r="N18" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="O18" s="113" t="s">
+      <c r="O18" s="112" t="s">
         <v>230</v>
       </c>
-      <c r="P18" s="114" t="s">
+      <c r="P18" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="Q18" s="114" t="s">
+      <c r="Q18" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="R18" s="114" t="s">
+      <c r="R18" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="AC18" s="114" t="s">
+      <c r="AC18" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="AF18" s="114" t="s">
+      <c r="AF18" s="113" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6729,10 +6722,10 @@
       <c r="M19" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="N19" s="115" t="s">
+      <c r="N19" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="O19" s="115" t="s">
+      <c r="O19" s="114" t="s">
         <v>242</v>
       </c>
       <c r="P19" s="0" t="s">
@@ -6747,10 +6740,10 @@
       <c r="S19" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="T19" s="115" t="s">
+      <c r="T19" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="U19" s="115" t="s">
+      <c r="U19" s="114" t="s">
         <v>244</v>
       </c>
       <c r="V19" s="0" t="s">
@@ -6766,12 +6759,12 @@
         <v>238</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AA19" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="AB19" s="115" t="s">
+      <c r="AB19" s="114" t="s">
         <v>242</v>
       </c>
       <c r="AC19" s="0" t="s">
@@ -6784,7 +6777,7 @@
         <v>238</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/months/oct23/oct23.xlsx
+++ b/months/oct23/oct23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="245">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -836,8 +836,8 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m;@"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="169" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1046,7 +1046,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1079,6 +1079,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1099,7 +1103,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1107,11 +1111,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1135,11 +1139,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1658,12 +1662,12 @@
   </sheetPr>
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="Z17" activeCellId="0" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1855,125 +1859,125 @@
         <f aca="false">price!AF1</f>
         <v>l:meals</v>
       </c>
-      <c r="AO1" s="6" t="str">
+      <c r="AO1" s="8" t="str">
         <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AN1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AN1,#REF!,0)+1)), "")</f>
         <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>45200</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A2,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="9" t="s">
+      <c r="W2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="9" t="s">
+      <c r="Z2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>-4</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AF2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AH2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AM2" s="0" t="n">
@@ -1981,119 +1985,119 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>45201</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A3,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="10" t="s">
+      <c r="S3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="9" t="s">
+      <c r="W3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="9" t="s">
+      <c r="Z3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AF3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AH3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AL3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AM3" s="0" t="n">
@@ -2101,2068 +2105,2070 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>45202</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A4,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="P4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="10" t="s">
+      <c r="S4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="9" t="s">
+      <c r="W4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="9" t="s">
+      <c r="Z4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AF4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AH4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AL4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>45203</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A5,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="Q5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="10" t="s">
+      <c r="S5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="9" t="s">
+      <c r="W5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AB5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AD5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AF5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AH5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AI5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AJ5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AK5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AL5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>45204</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A6,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="Q6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="10" t="s">
+      <c r="S6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="9" t="s">
+      <c r="W6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AC6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AF6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AF6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AH6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AJ6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AJ6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AL6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <v>45205</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A7,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="10" t="s">
+      <c r="M7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="Q7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="10" t="s">
+      <c r="S7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="9" t="s">
+      <c r="W7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA7" s="9" t="s">
+      <c r="Z7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AB7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AC7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AC7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AF7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AF7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AH7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI7" s="9" t="s">
+      <c r="AH7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="AJ7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AK7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM7" s="9" t="s">
+      <c r="AL7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <v>45206</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A8,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="P8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="10" t="s">
+      <c r="S8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="9" t="s">
+      <c r="W8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA8" s="9" t="s">
+      <c r="Z8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="9" t="s">
+      <c r="AB8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="9" t="s">
+      <c r="AC8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AD8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AF8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AF8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI8" s="9" t="s">
+      <c r="AH8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="AJ8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK8" s="9" t="s">
+      <c r="AK8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM8" s="9" t="s">
+      <c r="AL8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="9" t="n">
         <v>45207</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A9,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="10" t="s">
+      <c r="M9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="9" t="s">
+      <c r="P9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="10" t="s">
+      <c r="S9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="9" t="s">
+      <c r="W9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="9" t="s">
+      <c r="Z9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="9" t="s">
+      <c r="AB9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="9" t="s">
+      <c r="AC9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AE9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AF9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG9" s="9" t="s">
+      <c r="AF9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AH9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI9" s="9" t="s">
+      <c r="AH9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AJ9" s="9" t="s">
+      <c r="AJ9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK9" s="9" t="s">
+      <c r="AK9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AL9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM9" s="9" t="s">
+      <c r="AL9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="9" t="n">
         <v>45208</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="10" t="s">
+      <c r="M10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="9" t="s">
+      <c r="Q10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" s="10" t="s">
+      <c r="S10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="9" t="s">
+      <c r="W10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA10" s="9" t="s">
+      <c r="Z10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AB10" s="9" t="s">
+      <c r="AB10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AC10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AE10" s="9" t="s">
+      <c r="AE10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AF10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG10" s="9" t="s">
+      <c r="AF10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AH10" s="10" t="s">
+      <c r="AH10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AI10" s="9" t="s">
+      <c r="AI10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AJ10" s="9" t="s">
+      <c r="AJ10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK10" s="9" t="s">
+      <c r="AK10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AL10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM10" s="9" t="s">
+      <c r="AL10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="9" t="n">
         <v>45209</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="9" t="n">
         <v>45210</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
+      <c r="H12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="9" t="n">
         <v>45211</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
+      <c r="H13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="9" t="n">
         <v>45212</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
+      <c r="H14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="9" t="n">
         <v>45213</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="9" t="n">
         <v>45214</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
+      <c r="G16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="9" t="n">
         <v>45215</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="9" t="n">
         <v>45216</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
+      <c r="H18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="9" t="n">
         <v>45217</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="11"/>
+      <c r="H19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="9" t="n">
         <v>45218</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
+      <c r="H20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="9" t="n">
         <v>45219</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
+      <c r="H21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="9" t="n">
         <v>45220</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
+      <c r="G22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="9" t="n">
         <v>45221</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
+      <c r="F23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="9" t="n">
         <v>45222</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
+      <c r="H24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="9" t="n">
         <v>45223</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="9" t="n">
         <v>45224</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="9" t="n">
         <v>45225</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="9" t="n">
         <v>45226</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="9" t="n">
         <v>45227</v>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="F29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="9" t="n">
         <v>45228</v>
       </c>
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="9" t="n">
         <v>45229</v>
       </c>
-      <c r="B31" s="12" t="n">
+      <c r="B31" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="12"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="9" t="n">
         <v>45230</v>
       </c>
-      <c r="B32" s="12" t="n">
+      <c r="B32" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A32,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="12"/>
-      <c r="AJ32" s="12"/>
-      <c r="AK32" s="12"/>
-      <c r="AL32" s="12"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AI17:AL17 O17:AG17 AK25 O25:Y32 A3:A32 F6:F7 O18:AM24 F4 F9:F14 F16:F31 F3:G3 H3:N32 G4:G32 A32:F32 A2:E31 F2:AA2 AC2:AM2 A1:AM1 O3:AM16">
@@ -4280,913 +4286,913 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="14" width="27.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="14" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="14" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="14" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="15" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="15" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="16" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="16" t="str">
+      <c r="B1" s="17" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="17" t="str">
+      <c r="C1" s="18" t="str">
         <f aca="false">vedomost!F1</f>
         <v>DUTY</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="23" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45200</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="24" t="n">
         <f aca="false">vedomost!B2</f>
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="str">
+      <c r="C2" s="17" t="str">
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="n">
+      <c r="A3" s="23" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45201</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="24" t="n">
         <f aca="false">vedomost!B3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="str">
+      <c r="C3" s="17" t="str">
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v>-</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="n">
+      <c r="A4" s="23" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45202</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="24" t="n">
         <f aca="false">vedomost!B4</f>
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="17" t="str">
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="n">
+      <c r="A5" s="23" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45203</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <f aca="false">vedomost!B5</f>
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="17" t="str">
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
         <v>-</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="n">
+      <c r="A6" s="23" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45204</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="24" t="n">
         <f aca="false">vedomost!B6</f>
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="17" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
         <v>-</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="n">
+      <c r="A7" s="23" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45205</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <f aca="false">vedomost!B7</f>
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="17" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
         <v>-</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="n">
+      <c r="A8" s="23" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45206</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="24" t="n">
         <f aca="false">vedomost!B8</f>
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="17" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
         <v>-</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="29" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="n">
+      <c r="A9" s="23" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45207</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="24" t="n">
         <f aca="false">vedomost!B9</f>
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="17" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="n">
+      <c r="A10" s="23" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45208</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="24" t="n">
         <f aca="false">vedomost!B10</f>
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="17" t="str">
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
+      <c r="A11" s="23" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45209</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="24" t="n">
         <f aca="false">vedomost!B11</f>
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="17" t="str">
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
         <v>-</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="14" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="23" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45210</v>
       </c>
-      <c r="B12" s="23" t="n">
+      <c r="B12" s="24" t="n">
         <f aca="false">vedomost!B12</f>
         <v>3</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="17" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
         <v>-</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="D12" s="25"/>
+      <c r="F12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="29" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
+      <c r="A13" s="23" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45211</v>
       </c>
-      <c r="B13" s="23" t="n">
+      <c r="B13" s="24" t="n">
         <f aca="false">vedomost!B13</f>
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="17" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v>Ed8()</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="29" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="23" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45212</v>
       </c>
-      <c r="B14" s="23" t="n">
+      <c r="B14" s="24" t="n">
         <f aca="false">vedomost!B14</f>
         <v>5</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="17" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="F14" s="24" t="s">
+      <c r="D14" s="25"/>
+      <c r="F14" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="14" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="23" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45213</v>
       </c>
-      <c r="B15" s="23" t="n">
+      <c r="B15" s="24" t="n">
         <f aca="false">vedomost!B15</f>
         <v>6</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="17" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v>-</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="29" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="n">
+      <c r="A16" s="23" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45214</v>
       </c>
-      <c r="B16" s="23" t="n">
+      <c r="B16" s="24" t="n">
         <f aca="false">vedomost!B16</f>
         <v>7</v>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="17" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="29" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="n">
+      <c r="A17" s="23" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45215</v>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="24" t="n">
         <f aca="false">vedomost!B17</f>
         <v>1</v>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="17" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v>-</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="n">
+      <c r="A18" s="23" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45216</v>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="24" t="n">
         <f aca="false">vedomost!B18</f>
         <v>2</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="17" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v>-</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="F18" s="24" t="s">
+      <c r="D18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="16" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="n">
+      <c r="A19" s="23" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45217</v>
       </c>
-      <c r="B19" s="23" t="n">
+      <c r="B19" s="24" t="n">
         <f aca="false">vedomost!B19</f>
         <v>3</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="17" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
+      <c r="G19" s="25"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="n">
+      <c r="A20" s="23" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45218</v>
       </c>
-      <c r="B20" s="23" t="n">
+      <c r="B20" s="24" t="n">
         <f aca="false">vedomost!B20</f>
         <v>4</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="17" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v>Ed8()</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="F20" s="24" t="s">
+      <c r="D20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="25" t="s">
+      <c r="G20" s="25"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="n">
+      <c r="A21" s="23" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45219</v>
       </c>
-      <c r="B21" s="23" t="n">
+      <c r="B21" s="24" t="n">
         <f aca="false">vedomost!B21</f>
         <v>5</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="17" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v>-</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="n">
+      <c r="A22" s="23" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45220</v>
       </c>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="24" t="n">
         <f aca="false">vedomost!B22</f>
         <v>6</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="17" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="F22" s="24" t="s">
+      <c r="D22" s="25"/>
+      <c r="F22" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="n">
+      <c r="A23" s="23" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45221</v>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="24" t="n">
         <f aca="false">vedomost!B23</f>
         <v>7</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="17" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v>-</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="n">
+      <c r="A24" s="23" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45222</v>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="24" t="n">
         <f aca="false">vedomost!B24</f>
         <v>1</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="17" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="n">
+      <c r="A25" s="23" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45223</v>
       </c>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="24" t="n">
         <f aca="false">vedomost!B25</f>
         <v>2</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="17" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v>Ed8()</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="n">
+      <c r="A26" s="23" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45224</v>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="24" t="n">
         <f aca="false">vedomost!B26</f>
         <v>3</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="17" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v>-</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="n">
+      <c r="A27" s="23" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45225</v>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="24" t="n">
         <f aca="false">vedomost!B27</f>
         <v>4</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="17" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v>Ed8()</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="n">
+      <c r="A28" s="23" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45226</v>
       </c>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="24" t="n">
         <f aca="false">vedomost!B28</f>
         <v>5</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="17" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v>Ed24()</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="n">
+      <c r="A29" s="23" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45227</v>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="24" t="n">
         <f aca="false">vedomost!B29</f>
         <v>6</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="17" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v>-</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="F29" s="24" t="s">
+      <c r="D29" s="25"/>
+      <c r="F29" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="n">
+      <c r="A30" s="23" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45228</v>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="24" t="n">
         <f aca="false">vedomost!B30</f>
         <v>7</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="17" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="n">
+      <c r="A31" s="23" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45229</v>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="24" t="n">
         <f aca="false">vedomost!B31</f>
         <v>1</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="17" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v>-</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="n">
+      <c r="A32" s="23" t="n">
         <f aca="false">vedomost!A32</f>
         <v>45230</v>
       </c>
-      <c r="B32" s="23" t="n">
+      <c r="B32" s="24" t="n">
         <f aca="false">vedomost!B32</f>
         <v>2</v>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="17" t="str">
         <f aca="false">IF(vedomost!F32=0,"",vedomost!F32)</f>
         <v>-</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -5225,7 +5231,7 @@
   </sheetPr>
   <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
@@ -5233,7 +5239,7 @@
       <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.14"/>
@@ -5264,1232 +5270,1232 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AF1" s="36" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="43" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="W3" s="47" t="s">
+      <c r="W3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="Y3" s="47" t="s">
+      <c r="Y3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="AA3" s="47" t="s">
+      <c r="AA3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" s="47" t="s">
+      <c r="AB3" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" s="47" t="s">
+      <c r="AC3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AD3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AF3" s="48" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="S4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="W4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="X4" s="58" t="s">
+      <c r="X4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="Y4" s="58" t="s">
+      <c r="Y4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="57" t="s">
+      <c r="Z4" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="AA4" s="56" t="s">
+      <c r="AA4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="AB4" s="58" t="s">
+      <c r="AB4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="AC4" s="58" t="s">
+      <c r="AC4" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" s="58" t="s">
+      <c r="AD4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="AE4" s="58" t="s">
+      <c r="AE4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="AF4" s="57" t="s">
+      <c r="AF4" s="58" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="52" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="52" t="s">
+      <c r="I5" s="64"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q5" s="64" t="s">
+      <c r="Q5" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="R5" s="67" t="s">
+      <c r="R5" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="65" t="s">
+      <c r="S5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="T5" s="66" t="s">
+      <c r="T5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="V5" s="66" t="s">
+      <c r="V5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="W5" s="66" t="s">
+      <c r="W5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="X5" s="66" t="s">
+      <c r="X5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Y5" s="66" t="s">
+      <c r="Y5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Z5" s="64" t="s">
+      <c r="Z5" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="AA5" s="65" t="s">
+      <c r="AA5" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" s="66" t="s">
+      <c r="AB5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="AC5" s="66" t="s">
+      <c r="AC5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="AD5" s="66" t="s">
+      <c r="AD5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="AE5" s="66" t="s">
+      <c r="AE5" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="AF5" s="64" t="s">
+      <c r="AF5" s="65" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="68" t="s">
+      <c r="L6" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="74" t="s">
+      <c r="N6" s="70"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="U6" s="74"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="74" t="s">
+      <c r="U6" s="75"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="76" t="s">
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="AB6" s="74" t="s">
+      <c r="AB6" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="74" t="s">
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="AE6" s="74" t="s">
+      <c r="AE6" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="AF6" s="74" t="s">
+      <c r="AF6" s="75" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="83" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="T7" s="84" t="s">
+      <c r="T7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="U7" s="84" t="s">
+      <c r="U7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="V7" s="84" t="s">
+      <c r="V7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="W7" s="84" t="s">
+      <c r="W7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="X7" s="84" t="s">
+      <c r="X7" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="Y7" s="84" t="s">
+      <c r="Y7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="Z7" s="85" t="s">
+      <c r="Z7" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="AA7" s="83" t="s">
+      <c r="AA7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="AB7" s="84" t="s">
+      <c r="AB7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="AC7" s="84" t="s">
+      <c r="AC7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="AD7" s="84" t="s">
+      <c r="AD7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="AE7" s="84" t="s">
+      <c r="AE7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="AF7" s="85" t="s">
+      <c r="AF7" s="86" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62" t="s">
+      <c r="I8" s="63"/>
+      <c r="J8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="80" t="s">
+      <c r="M8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="N8" s="79" t="s">
+      <c r="N8" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="O8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="81" t="s">
+      <c r="P8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="Q8" s="80" t="s">
+      <c r="Q8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="R8" s="82" t="s">
+      <c r="R8" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="S8" s="79" t="s">
+      <c r="S8" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="T8" s="81" t="s">
+      <c r="T8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="U8" s="81" t="s">
+      <c r="U8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="V8" s="81" t="s">
+      <c r="V8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="W8" s="81" t="s">
+      <c r="W8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81" t="s">
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" s="80" t="s">
+      <c r="Z8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" s="79" t="s">
+      <c r="AA8" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="AB8" s="81" t="s">
+      <c r="AB8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="AC8" s="81" t="s">
+      <c r="AC8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81" t="s">
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="AF8" s="80" t="s">
+      <c r="AF8" s="81" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="89" t="s">
+      <c r="K9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="M9" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="90" t="s">
+      <c r="N9" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="O9" s="92" t="s">
+      <c r="O9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="P9" s="92" t="s">
+      <c r="P9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="Q9" s="91" t="s">
+      <c r="Q9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="93" t="s">
+      <c r="R9" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="S9" s="90" t="s">
+      <c r="S9" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="T9" s="92" t="s">
+      <c r="T9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="U9" s="92" t="s">
+      <c r="U9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="V9" s="92" t="s">
+      <c r="V9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="W9" s="92" t="s">
+      <c r="W9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="X9" s="92" t="s">
+      <c r="X9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="Y9" s="92" t="s">
+      <c r="Y9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="Z9" s="91" t="s">
+      <c r="Z9" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="AA9" s="90" t="s">
+      <c r="AA9" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="AB9" s="92" t="s">
+      <c r="AB9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="AC9" s="92" t="s">
+      <c r="AC9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="AD9" s="92" t="s">
+      <c r="AD9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="AE9" s="92" t="s">
+      <c r="AE9" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="AF9" s="91" t="s">
+      <c r="AF9" s="92" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="94" t="s">
+      <c r="K10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="M10" s="98" t="s">
+      <c r="M10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="N10" s="97" t="s">
+      <c r="N10" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="O10" s="99" t="s">
+      <c r="O10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="P10" s="99" t="s">
+      <c r="P10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="Q10" s="98" t="s">
+      <c r="Q10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="R10" s="100" t="s">
+      <c r="R10" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="S10" s="97" t="s">
+      <c r="S10" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="T10" s="99" t="s">
+      <c r="T10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="U10" s="99" t="s">
+      <c r="U10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99" t="s">
+      <c r="V10" s="100"/>
+      <c r="W10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="X10" s="99" t="s">
+      <c r="X10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="Y10" s="99" t="s">
+      <c r="Y10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="Z10" s="98" t="s">
+      <c r="Z10" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AA10" s="97" t="s">
+      <c r="AA10" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AB10" s="99" t="s">
+      <c r="AB10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99" t="s">
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="AE10" s="99" t="s">
+      <c r="AE10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="AF10" s="98" t="s">
+      <c r="AF10" s="99" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="101" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="101" t="s">
+      <c r="H11" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101" t="s">
+      <c r="I11" s="102"/>
+      <c r="J11" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="105" t="s">
+      <c r="K11" s="102"/>
+      <c r="L11" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="106"/>
-      <c r="N11" s="107" t="s">
+      <c r="M11" s="107"/>
+      <c r="N11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107" t="s">
+      <c r="O11" s="108"/>
+      <c r="P11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="Q11" s="106" t="s">
+      <c r="Q11" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="R11" s="108" t="s">
+      <c r="R11" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="S11" s="104" t="s">
+      <c r="S11" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="T11" s="104" t="s">
+      <c r="T11" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107" t="s">
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="X11" s="107" t="s">
+      <c r="X11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="Y11" s="107" t="s">
+      <c r="Y11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="Z11" s="107" t="s">
+      <c r="Z11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="AA11" s="104" t="s">
+      <c r="AA11" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="AB11" s="104" t="s">
+      <c r="AB11" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107" t="s">
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="AE11" s="107" t="s">
+      <c r="AE11" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="AF11" s="107" t="s">
+      <c r="AF11" s="108" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="101" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="101" t="s">
+      <c r="H12" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101" t="s">
+      <c r="I12" s="102"/>
+      <c r="J12" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="105" t="s">
+      <c r="K12" s="102"/>
+      <c r="L12" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107" t="s">
+      <c r="M12" s="107"/>
+      <c r="N12" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107" t="s">
+      <c r="O12" s="108"/>
+      <c r="P12" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="106" t="s">
+      <c r="Q12" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="R12" s="108" t="s">
+      <c r="R12" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="S12" s="104" t="s">
+      <c r="S12" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="T12" s="104" t="s">
+      <c r="T12" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107" t="s">
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="X12" s="107" t="s">
+      <c r="X12" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="Y12" s="107" t="s">
+      <c r="Y12" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="Z12" s="107" t="s">
+      <c r="Z12" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="AA12" s="104" t="s">
+      <c r="AA12" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="AB12" s="104" t="s">
+      <c r="AB12" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107" t="s">
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="AE12" s="107" t="s">
+      <c r="AE12" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="AF12" s="107" t="s">
+      <c r="AF12" s="108" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="101" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="101" t="n">
+      <c r="F13" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="101" t="n">
+      <c r="H13" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101" t="n">
+      <c r="I13" s="102"/>
+      <c r="J13" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="105" t="s">
+      <c r="K13" s="102"/>
+      <c r="L13" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="106"/>
-      <c r="N13" s="107" t="s">
+      <c r="M13" s="107"/>
+      <c r="N13" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107" t="n">
+      <c r="O13" s="108"/>
+      <c r="P13" s="108" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" s="109" t="n">
+      <c r="Q13" s="110" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="108" t="s">
+      <c r="R13" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="110" t="n">
+      <c r="S13" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="T13" s="110" t="s">
+      <c r="T13" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107" t="s">
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="X13" s="107" t="n">
+      <c r="X13" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="Y13" s="107" t="s">
+      <c r="Y13" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Z13" s="107" t="s">
+      <c r="Z13" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AA13" s="110" t="n">
+      <c r="AA13" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="AB13" s="110" t="s">
+      <c r="AB13" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107" t="n">
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="AE13" s="107" t="s">
+      <c r="AE13" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AF13" s="107" t="s">
+      <c r="AF13" s="108" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="101" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="101" t="n">
+      <c r="E14" s="102" t="n">
         <v>25</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="G14" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="101" t="n">
+      <c r="H14" s="102" t="n">
         <v>25</v>
       </c>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101" t="s">
+      <c r="I14" s="102"/>
+      <c r="J14" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="105" t="n">
+      <c r="K14" s="102"/>
+      <c r="L14" s="106" t="n">
         <v>100</v>
       </c>
-      <c r="M14" s="106"/>
-      <c r="N14" s="107" t="s">
+      <c r="M14" s="107"/>
+      <c r="N14" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107" t="s">
+      <c r="O14" s="108"/>
+      <c r="P14" s="108" t="s">
         <v>187</v>
       </c>
-      <c r="Q14" s="109" t="s">
+      <c r="Q14" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="R14" s="108" t="s">
+      <c r="R14" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="S14" s="110" t="s">
+      <c r="S14" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="110" t="s">
+      <c r="T14" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107" t="s">
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="X14" s="107" t="n">
+      <c r="X14" s="108" t="n">
         <v>25</v>
       </c>
-      <c r="Y14" s="107" t="s">
+      <c r="Y14" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="Z14" s="107" t="s">
+      <c r="Z14" s="108" t="s">
         <v>187</v>
       </c>
-      <c r="AA14" s="110" t="s">
+      <c r="AA14" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="AB14" s="110" t="s">
+      <c r="AB14" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107" t="s">
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108" t="s">
         <v>187</v>
       </c>
-      <c r="AE14" s="107" t="s">
+      <c r="AE14" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" s="107" t="s">
+      <c r="AF14" s="108" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="112" t="s">
         <v>190</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -6577,7 +6583,7 @@
       <c r="C17" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="113" t="s">
         <v>204</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -6586,55 +6592,55 @@
       <c r="F17" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="G17" s="112" t="s">
+      <c r="G17" s="113" t="s">
         <v>207</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="J17" s="112" t="s">
+      <c r="J17" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="112" t="s">
+      <c r="K17" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="L17" s="112" t="s">
+      <c r="L17" s="113" t="s">
         <v>212</v>
       </c>
-      <c r="M17" s="112" t="s">
+      <c r="M17" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="N17" s="112" t="s">
+      <c r="N17" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="O17" s="112" t="s">
+      <c r="O17" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="P17" s="112" t="s">
+      <c r="P17" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="Q17" s="112" t="s">
+      <c r="Q17" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="R17" s="112" t="s">
+      <c r="R17" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="AA17" s="112" t="s">
+      <c r="AA17" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="AB17" s="112" t="s">
+      <c r="AB17" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="AC17" s="112" t="s">
+      <c r="AC17" s="113" t="s">
         <v>221</v>
       </c>
       <c r="AD17" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="AE17" s="112" t="s">
+      <c r="AE17" s="113" t="s">
         <v>223</v>
       </c>
       <c r="AF17" s="0" t="s">
@@ -6645,40 +6651,40 @@
       <c r="A18" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="112" t="s">
+      <c r="G18" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="112" t="s">
+      <c r="H18" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="K18" s="112" t="s">
+      <c r="K18" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="M18" s="112" t="s">
+      <c r="M18" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="113" t="s">
+      <c r="N18" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="O18" s="112" t="s">
+      <c r="O18" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="P18" s="113" t="s">
+      <c r="P18" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="Q18" s="113" t="s">
+      <c r="Q18" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="R18" s="113" t="s">
+      <c r="R18" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="AC18" s="113" t="s">
+      <c r="AC18" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="AF18" s="113" t="s">
+      <c r="AF18" s="114" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6722,10 +6728,10 @@
       <c r="M19" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="N19" s="114" t="s">
+      <c r="N19" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="O19" s="114" t="s">
+      <c r="O19" s="115" t="s">
         <v>242</v>
       </c>
       <c r="P19" s="0" t="s">
@@ -6740,10 +6746,10 @@
       <c r="S19" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="T19" s="114" t="s">
+      <c r="T19" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="U19" s="114" t="s">
+      <c r="U19" s="115" t="s">
         <v>244</v>
       </c>
       <c r="V19" s="0" t="s">
@@ -6764,7 +6770,7 @@
       <c r="AA19" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="AB19" s="114" t="s">
+      <c r="AB19" s="115" t="s">
         <v>242</v>
       </c>
       <c r="AC19" s="0" t="s">

--- a/months/oct23/oct23.xlsx
+++ b/months/oct23/oct23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="267">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -637,7 +637,7 @@
     <t xml:space="preserve">-0.25*</t>
   </si>
   <si>
-    <t xml:space="preserve">{"True": "-0.25*", "False": 0}</t>
+    <t xml:space="preserve">{"T": "-0.25*", "F": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">dacha</t>
@@ -679,10 +679,13 @@
     <t xml:space="preserve">every N</t>
   </si>
   <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -899,8 +902,8 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m;@"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="General"/>
-    <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="169" formatCode="General"/>
     <numFmt numFmtId="170" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
   </numFmts>
   <fonts count="8">
@@ -1143,7 +1146,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1167,7 +1170,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1175,11 +1178,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1203,11 +1206,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1730,12 +1733,12 @@
   </sheetPr>
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD14" activeCellId="0" sqref="AD14"/>
+      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2628,7 +2631,7 @@
         <v>38</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG7" s="10" t="s">
         <v>44</v>
@@ -2772,7 +2775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>45207</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>27</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG9" s="10" t="s">
         <v>21</v>
@@ -2988,7 +2991,7 @@
         <v>66</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AG10" s="10" t="s">
         <v>35</v>
@@ -3366,7 +3369,7 @@
         <v>34</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM13" s="10" t="s">
         <v>35</v>
@@ -3486,7 +3489,7 @@
         <v>79</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM14" s="10" t="s">
         <v>35</v>
@@ -5744,12 +5747,12 @@
   </sheetPr>
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6767,89 +6770,89 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="102" t="s">
         <v>202</v>
       </c>
       <c r="B12" s="103"/>
       <c r="C12" s="104"/>
       <c r="D12" s="102" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="I12" s="102"/>
       <c r="J12" s="102" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="106" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="M12" s="107"/>
       <c r="N12" s="108" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O12" s="108"/>
       <c r="P12" s="108" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="107" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="R12" s="109" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="S12" s="105" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="T12" s="105" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="U12" s="108"/>
       <c r="V12" s="108"/>
       <c r="W12" s="108" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="X12" s="108" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="Y12" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z12" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="Z12" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12" s="105" t="s">
-        <v>179</v>
+      <c r="AA12" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB12" s="108" t="s">
+        <v>203</v>
       </c>
       <c r="AC12" s="108"/>
       <c r="AD12" s="108" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="AE12" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF12" s="108" t="s">
         <v>203</v>
-      </c>
-      <c r="AF12" s="108" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B13" s="103"/>
       <c r="C13" s="104"/>
@@ -6929,28 +6932,28 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B14" s="103"/>
       <c r="C14" s="104"/>
       <c r="D14" s="102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E14" s="102" t="n">
         <v>25</v>
       </c>
       <c r="F14" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="105" t="s">
         <v>207</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>206</v>
       </c>
       <c r="H14" s="102" t="n">
         <v>25</v>
       </c>
       <c r="I14" s="102"/>
       <c r="J14" s="102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K14" s="102"/>
       <c r="L14" s="106" t="n">
@@ -6958,350 +6961,350 @@
       </c>
       <c r="M14" s="107"/>
       <c r="N14" s="108" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O14" s="108"/>
       <c r="P14" s="108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R14" s="109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S14" s="111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T14" s="111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U14" s="108"/>
       <c r="V14" s="108"/>
       <c r="W14" s="108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X14" s="108" t="n">
         <v>25</v>
       </c>
       <c r="Y14" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z14" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="Z14" s="108" t="s">
-        <v>207</v>
-      </c>
       <c r="AA14" s="111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB14" s="111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC14" s="108"/>
       <c r="AD14" s="108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AE14" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF14" s="108" t="s">
         <v>208</v>
-      </c>
-      <c r="AF14" s="108" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="112" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="I15" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>54</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P15" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y15" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Z15" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE15" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="R15" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="U15" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z15" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA15" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB15" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE15" s="0" t="s">
-        <v>217</v>
-      </c>
       <c r="AF15" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T16" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D17" s="113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I17" s="113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J17" s="113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K17" s="113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L17" s="113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M17" s="113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N17" s="113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O17" s="113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P17" s="113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R17" s="113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA17" s="113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AB17" s="113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AC17" s="113" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AE17" s="113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G18" s="113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H18" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="K18" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="M18" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="113" t="s">
-        <v>248</v>
-      </c>
-      <c r="M18" s="113" t="s">
-        <v>246</v>
-      </c>
       <c r="N18" s="114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O18" s="113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P18" s="114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R18" s="114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AC18" s="114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF18" s="114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="H19" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="J19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="K19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="L19" s="0" t="s">
-        <v>258</v>
-      </c>
       <c r="M19" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="N19" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="O19" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="P19" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="N19" s="115" t="s">
+      <c r="Q19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="T19" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="U19" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="X19" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="O19" s="115" t="s">
+      <c r="Y19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z19" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="P19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="R19" s="0" t="s">
+      <c r="AA19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB19" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="S19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="T19" s="115" t="s">
+      <c r="AC19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF19" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="U19" s="115" t="s">
-        <v>264</v>
-      </c>
-      <c r="V19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z19" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB19" s="115" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD19" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF19" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B20" s="116" t="n">
         <f aca="false">TRUE()</f>

--- a/months/oct23/oct23.xlsx
+++ b/months/oct23/oct23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="268">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -348,9 +348,6 @@
     <t xml:space="preserve">22:02</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ed24(1)</t>
   </si>
   <si>
@@ -360,24 +357,27 @@
     <t xml:space="preserve">23:20</t>
   </si>
   <si>
+    <t xml:space="preserve">L1,E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3,L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:50</t>
+  </si>
+  <si>
     <t xml:space="preserve">L</t>
   </si>
   <si>
-    <t xml:space="preserve">L1,E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3,L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lhd, Ehd</t>
   </si>
   <si>
     <t xml:space="preserve">zKG(0.5), aKG(0.5)</t>
   </si>
   <si>
+    <t xml:space="preserve">E5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ed24()</t>
   </si>
   <si>
@@ -825,20 +825,21 @@
     <t xml:space="preserve">range(-5,5,1)</t>
   </si>
   <si>
-    <t xml:space="preserve">solid</t>
+    <t xml:space="preserve">private_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
+    <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1047,7 +1048,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1100,7 +1101,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1456,7 +1457,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1576,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3179,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>41</v>
@@ -3188,7 +3197,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>57</v>
@@ -3215,7 +3224,7 @@
         <v>47</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>50</v>
@@ -3281,7 +3290,7 @@
         <v>50</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM14" s="0" t="s">
         <v>44</v>
@@ -3301,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>55</v>
@@ -3346,7 +3355,7 @@
         <v>44</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T15" s="0" t="s">
         <v>46</v>
@@ -3358,7 +3367,7 @@
         <v>52</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X15" s="0" t="s">
         <v>46</v>
@@ -3423,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>41</v>
@@ -3507,7 +3516,7 @@
         <v>65</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AG16" s="0" t="s">
         <v>46</v>
@@ -3545,115 +3554,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="0" t="s">
+      <c r="I17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="U17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC17" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN17" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,7 +3627,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>57</v>
@@ -5019,19 +4944,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M20" activeCellId="0" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="12.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="35.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="20" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="44.14"/>
@@ -6581,129 +6506,130 @@
         <v>267</v>
       </c>
       <c r="B20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="102" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C20" s="102" t="n">
+      <c r="E20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="103" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D20" s="102" t="n">
+      <c r="H20" s="102" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E20" s="102" t="n">
+      <c r="I20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="103" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F20" s="102" t="n">
+      <c r="L20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="102" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="102" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G20" s="102" t="n">
+      <c r="P20" s="102" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="102" t="n">
+      <c r="Q20" s="102" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O20" s="102" t="n">
+      <c r="R20" s="102" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="S20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="T20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="U20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="V20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="W20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="X20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="Y20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="Z20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AA20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AB20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AC20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AD20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AE20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AF20" s="102" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="104"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:X12 BM12:AMJ12 Z12:AF12">

--- a/months/oct23/oct23.xlsx
+++ b/months/oct23/oct23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="296">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -438,6 +438,24 @@
     <t xml:space="preserve">L0</t>
   </si>
   <si>
+    <t xml:space="preserve">E0,L0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L0,E0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0,L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1,E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:23</t>
+  </si>
+  <si>
     <t xml:space="preserve">увлажнители</t>
   </si>
   <si>
@@ -567,7 +585,7 @@
     <t xml:space="preserve">{"+": 50 , "-": 0}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;.1": 20, "1": 0, "0": -50, "F": 0}</t>
+    <t xml:space="preserve">{"&gt;.1": 20, "1": 0, "0": -30, "F": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&lt;.22": "20+1*", "&gt;=.22": -50, "&gt;.23": " -2*"}</t>
@@ -585,16 +603,16 @@
     <t xml:space="preserve">{"&gt;.0": "20*", "0": 0}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"+": 30, "-": -100}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "30*", "0": 0}</t>
+    <t xml:space="preserve">{"+": 30, "-": -80}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "40*", "0": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;.0": "15*", "0": 0}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
+    <t xml:space="preserve">{"&gt;=.4": "8*", "&gt;=.2": "10*", "&lt;.2": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;.0": "-30*", "0": 50}</t>
@@ -618,6 +636,12 @@
     <t xml:space="preserve">{"&gt;=.3": "10*", "&lt;.3": 0}</t>
   </si>
   <si>
+    <t xml:space="preserve">{"&gt;.0": "12*", "0": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "20+1*", "&gt;.23": "-0.75*", "&gt;.0": "-1.5*"}</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
@@ -673,6 +697,9 @@
   </si>
   <si>
     <t xml:space="preserve">weak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20*</t>
   </si>
   <si>
     <t xml:space="preserve">0.2*</t>
@@ -889,13 +916,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="170" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -923,8 +951,15 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
+      <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -949,13 +984,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1104,7 +1132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1117,19 +1145,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1137,51 +1197,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1189,315 +1225,315 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1505,19 +1541,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1530,7 +1566,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="1"/>
@@ -1553,6 +1589,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
@@ -1563,6 +1610,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1635,13 +1689,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="V33" activeCellId="0" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.43"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5094,7 +5154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>45228</v>
       </c>
@@ -5213,13 +5273,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>45229</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C31" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="D31" s="0" t="s">
         <v>54</v>
       </c>
@@ -5235,14 +5298,110 @@
       <c r="H31" s="0" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD31" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE31" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM31" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>45230</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="C32" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="D32" s="0" t="s">
         <v>54</v>
       </c>
@@ -5258,7 +5417,101 @@
       <c r="H32" s="0" t="s">
         <v>43</v>
       </c>
-    </row>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF32" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5283,913 +5536,913 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="27.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="4" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="6" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="7" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="8" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="7" t="str">
+      <c r="C1" s="9" t="str">
         <f aca="false">vedomost!F1</f>
         <v>DUTY</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="14" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45200</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="15" t="n">
         <f aca="false">vedomost!B2</f>
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="8" t="str">
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="14" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45201</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="15" t="n">
         <f aca="false">vedomost!B3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="8" t="str">
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v>-</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="D3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
+      <c r="G3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="14" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45202</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="15" t="n">
         <f aca="false">vedomost!B4</f>
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="8" t="str">
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="14" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45203</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="15" t="n">
         <f aca="false">vedomost!B5</f>
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="8" t="str">
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
         <v>-</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="14" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45204</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="15" t="n">
         <f aca="false">vedomost!B6</f>
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="8" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
         <v>-</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="14" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45205</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="15" t="n">
         <f aca="false">vedomost!B7</f>
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="8" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
         <v>-</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="14" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45206</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="15" t="n">
         <f aca="false">vedomost!B8</f>
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="8" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
         <v>-</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="14" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45207</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="15" t="n">
         <f aca="false">vedomost!B9</f>
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="8" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="14" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45208</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="15" t="n">
         <f aca="false">vedomost!B10</f>
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="8" t="str">
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="14" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45209</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="15" t="n">
         <f aca="false">vedomost!B11</f>
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="8" t="str">
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
         <v>-</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="D11" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="14" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45210</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="15" t="n">
         <f aca="false">vedomost!B12</f>
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="8" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
         <v>-</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="14" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45211</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="15" t="n">
         <f aca="false">vedomost!B13</f>
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="8" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v>Ed8(2)</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="14" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45212</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="15" t="n">
         <f aca="false">vedomost!B14</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="8" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v>Ed24(1)</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="14" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45213</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="15" t="n">
         <f aca="false">vedomost!B15</f>
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="8" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v>-</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="14" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45214</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="15" t="n">
         <f aca="false">vedomost!B16</f>
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="8" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="14" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45215</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="15" t="n">
         <f aca="false">vedomost!B17</f>
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="8" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v>-</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="D17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="14" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45216</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="15" t="n">
         <f aca="false">vedomost!B18</f>
         <v>2</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="8" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v>-</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="14" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45217</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="15" t="n">
         <f aca="false">vedomost!B19</f>
         <v>3</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="8" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v>Ed24(1)</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="14" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45218</v>
       </c>
-      <c r="B20" s="13" t="n">
+      <c r="B20" s="15" t="n">
         <f aca="false">vedomost!B20</f>
         <v>4</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="8" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="14" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45219</v>
       </c>
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="15" t="n">
         <f aca="false">vedomost!B21</f>
         <v>5</v>
       </c>
-      <c r="C21" s="6" t="str">
+      <c r="C21" s="8" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v>-</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
+      <c r="E21" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="14" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45220</v>
       </c>
-      <c r="B22" s="13" t="n">
+      <c r="B22" s="15" t="n">
         <f aca="false">vedomost!B22</f>
         <v>6</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" s="8" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="F22" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="14" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45221</v>
       </c>
-      <c r="B23" s="13" t="n">
+      <c r="B23" s="15" t="n">
         <f aca="false">vedomost!B23</f>
         <v>7</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" s="8" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v>-</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="14" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45222</v>
       </c>
-      <c r="B24" s="13" t="n">
+      <c r="B24" s="15" t="n">
         <f aca="false">vedomost!B24</f>
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="8" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v>Ed24(1)</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="14" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45223</v>
       </c>
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="15" t="n">
         <f aca="false">vedomost!B25</f>
         <v>2</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="8" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v>Ed8(2)</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="A26" s="14" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45224</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="15" t="n">
         <f aca="false">vedomost!B26</f>
         <v>3</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="8" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v>-</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="14" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45225</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="15" t="n">
         <f aca="false">vedomost!B27</f>
         <v>4</v>
       </c>
-      <c r="C27" s="6" t="str">
+      <c r="C27" s="8" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="14" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45226</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="15" t="n">
         <f aca="false">vedomost!B28</f>
         <v>5</v>
       </c>
-      <c r="C28" s="6" t="str">
+      <c r="C28" s="8" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v>Ed24(1)</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="14" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45227</v>
       </c>
-      <c r="B29" s="13" t="n">
+      <c r="B29" s="15" t="n">
         <f aca="false">vedomost!B29</f>
         <v>6</v>
       </c>
-      <c r="C29" s="6" t="str">
+      <c r="C29" s="8" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v>-</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="F29" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="14" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45228</v>
       </c>
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="15" t="n">
         <f aca="false">vedomost!B30</f>
         <v>7</v>
       </c>
-      <c r="C30" s="6" t="str">
+      <c r="C30" s="8" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="14" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45229</v>
       </c>
-      <c r="B31" s="13" t="n">
+      <c r="B31" s="15" t="n">
         <f aca="false">vedomost!B31</f>
         <v>1</v>
       </c>
-      <c r="C31" s="6" t="str">
+      <c r="C31" s="8" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v>-</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="14" t="n">
         <f aca="false">vedomost!A32</f>
         <v>45230</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="15" t="n">
         <f aca="false">vedomost!B32</f>
         <v>2</v>
       </c>
-      <c r="C32" s="6" t="str">
+      <c r="C32" s="8" t="str">
         <f aca="false">IF(vedomost!F32=0,"",vedomost!F32)</f>
         <v>-</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -6201,7 +6454,7 @@
     <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="8" dxfId="1">
       <formula>NOT(ISERROR(SEARCH("8",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="24" dxfId="0">
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="24" dxfId="2">
       <formula>NOT(ISERROR(SEARCH("24",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6228,1703 +6481,1703 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="35.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="20" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="44.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="42.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="20" width="45.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="20" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="20" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="20" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="20" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="20" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="20" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="20" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="20" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="20" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="20" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="20" width="45.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="20" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="20" width="36.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="20" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="20" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="20" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="20" width="45.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="20" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="20" width="36.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="33" style="20" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="35.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="22" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="44.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="42.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="22" width="45.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="22" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="22" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="22" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="22" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="22" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="22" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="22" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="22" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="22" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="22" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="22" width="45.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="22" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="22" width="36.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="22" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="22" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="22" width="39.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="22" width="45.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="22" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="22" width="36.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="33" style="22" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" s="30" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AF1" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="C2" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="G2" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="P2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="R2" s="35" t="s">
+      <c r="J2" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="K2" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="M2" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="V2" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="W2" s="32" t="s">
+      <c r="N2" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="O2" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="Y2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z2" s="33" t="s">
+      <c r="P2" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="AA2" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC2" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD2" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF2" s="33" t="s">
-        <v>197</v>
+      <c r="S2" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD2" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE2" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF2" s="35" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="W3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z3" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC3" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF3" s="38" t="s">
-        <v>201</v>
+      <c r="A3" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="U3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="V3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="W3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z3" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB3" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF3" s="40" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q4" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="R4" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="T4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="U4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="V4" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="W4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="X4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z4" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA4" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC4" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE4" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF4" s="48" t="s">
-        <v>203</v>
+      <c r="A4" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="X4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z4" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA4" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC4" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF4" s="50" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="O5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="P5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q5" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="S5" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="T5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="U5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="V5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="W5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="X5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z5" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA5" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE5" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF5" s="55" t="s">
-        <v>206</v>
+      <c r="B5" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q5" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="T5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="V5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="W5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="X5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z5" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA5" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE5" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF5" s="57" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="L6" s="59" t="s">
+      <c r="A6" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="62"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="U6" s="66"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB6" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE6" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF6" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="M6" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="U6" s="64"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB6" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE6" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF6" s="64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+      <c r="T7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="U7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="V7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="W7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="X7" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z7" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA7" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE7" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF7" s="77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="O8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="R8" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="S8" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="T8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="U8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="V8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="W8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z8" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA8" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF8" s="72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="T7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="U7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="V7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="W7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="X7" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z7" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA7" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE7" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF7" s="75" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="K8" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="L8" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="M8" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="N8" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="O8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="P8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="R8" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="S8" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="T8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="U8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="V8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="W8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z8" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA8" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF8" s="70" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="79" t="s">
+      <c r="C9" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="N9" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q9" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="R9" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="T9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="U9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="W9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="X9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z9" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA9" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF9" s="83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="79" t="s">
+      <c r="C10" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="I9" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="M9" s="81" t="s">
+      <c r="D10" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="N9" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="O9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="P9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q9" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="R9" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="S9" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="T9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="U9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="V9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="W9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="X9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z9" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA9" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE9" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF9" s="81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="J10" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="L10" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="M10" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="N10" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="O10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="P10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="R10" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="S10" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="T10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="U10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="X10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z10" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA10" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF10" s="88" t="s">
-        <v>209</v>
+      <c r="E10" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="N10" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="O10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="P10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q10" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="R10" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="S10" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="T10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="U10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="X10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z10" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA10" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF10" s="90" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="H11" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q11" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="R11" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="S11" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="T11" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="X11" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y11" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z11" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA11" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB11" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE11" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF11" s="96" t="s">
-        <v>220</v>
+      <c r="A11" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11" s="97"/>
+      <c r="N11" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q11" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="R11" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="S11" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="T11" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="X11" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y11" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z11" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA11" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB11" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE11" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF11" s="98" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96" t="s">
+      <c r="A12" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="97"/>
+      <c r="N12" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q12" s="95" t="s">
-        <v>222</v>
-      </c>
-      <c r="R12" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="S12" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="T12" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="X12" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y12" s="96" t="s">
+      <c r="O12" s="98"/>
+      <c r="P12" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q12" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="R12" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="S12" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="T12" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="X12" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y12" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA12" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB12" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE12" s="96" t="s">
+      <c r="Z12" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA12" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB12" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE12" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="AF12" s="96" t="s">
-        <v>222</v>
+      <c r="AF12" s="98" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="91" t="s">
+      <c r="A13" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="91" t="n">
+      <c r="F13" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="91" t="n">
+      <c r="H13" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91" t="n">
+      <c r="I13" s="93"/>
+      <c r="J13" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92" t="s">
+      <c r="K13" s="93"/>
+      <c r="L13" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96" t="s">
+      <c r="M13" s="97"/>
+      <c r="N13" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96" t="n">
+      <c r="O13" s="98"/>
+      <c r="P13" s="98" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" s="95" t="n">
+      <c r="Q13" s="97" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="97" t="s">
+      <c r="R13" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="94" t="n">
+      <c r="S13" s="96" t="n">
         <v>3</v>
       </c>
-      <c r="T13" s="94" t="s">
+      <c r="T13" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96" t="s">
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="X13" s="96" t="n">
+      <c r="X13" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="Y13" s="96" t="s">
+      <c r="Y13" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="96" t="s">
+      <c r="Z13" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="AA13" s="94" t="n">
+      <c r="AA13" s="96" t="n">
         <v>3</v>
       </c>
-      <c r="AB13" s="94" t="s">
+      <c r="AB13" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96" t="n">
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="AE13" s="96" t="s">
+      <c r="AE13" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="AF13" s="96" t="s">
+      <c r="AF13" s="98" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="E14" s="91" t="n">
+      <c r="A14" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="93" t="n">
         <v>25</v>
       </c>
-      <c r="F14" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="91" t="n">
+      <c r="F14" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="93" t="n">
         <v>25</v>
       </c>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92" t="n">
+      <c r="I14" s="93"/>
+      <c r="J14" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94" t="n">
         <v>100</v>
       </c>
-      <c r="M14" s="95"/>
-      <c r="N14" s="96" t="s">
-        <v>227</v>
-      </c>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="R14" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="S14" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="T14" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="X14" s="96" t="n">
+      <c r="M14" s="97"/>
+      <c r="N14" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="R14" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="S14" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="T14" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="X14" s="98" t="n">
         <v>25</v>
       </c>
-      <c r="Y14" s="96" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z14" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA14" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB14" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE14" s="96" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF14" s="96" t="s">
-        <v>226</v>
+      <c r="Y14" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z14" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA14" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB14" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE14" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF14" s="98" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J15" s="20" t="s">
+      <c r="A15" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y15" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z15" s="20" t="s">
+      <c r="L15" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y15" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA15" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="AA15" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB15" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF15" s="20" t="s">
-        <v>230</v>
+      <c r="AB15" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE15" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T16" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB16" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF16" s="20" t="s">
-        <v>239</v>
+      <c r="T16" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB16" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF16" s="22" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="I17" s="99" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="99" t="s">
+      <c r="A17" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="K17" s="99" t="s">
+      <c r="B17" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="L17" s="99" t="s">
+      <c r="C17" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="99" t="s">
+      <c r="D17" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="N17" s="99" t="s">
+      <c r="E17" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="O17" s="99" t="s">
+      <c r="F17" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="P17" s="99" t="s">
+      <c r="G17" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="Q17" s="99" t="s">
+      <c r="H17" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="R17" s="99" t="s">
+      <c r="I17" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="AA17" s="99" t="s">
+      <c r="J17" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="AB17" s="99" t="s">
+      <c r="K17" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="AC17" s="99" t="s">
+      <c r="L17" s="101" t="s">
         <v>260</v>
       </c>
-      <c r="AD17" s="20" t="s">
+      <c r="M17" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="AE17" s="99" t="s">
+      <c r="N17" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="AF17" s="20" t="s">
+      <c r="O17" s="101" t="s">
         <v>263</v>
       </c>
+      <c r="P17" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q17" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="R17" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA17" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB17" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC17" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD17" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE17" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF17" s="22" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="G18" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="M18" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="N18" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="O18" s="99" t="s">
-        <v>270</v>
-      </c>
-      <c r="P18" s="100" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q18" s="100" t="s">
-        <v>272</v>
-      </c>
-      <c r="R18" s="100" t="s">
+      <c r="A18" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="AC18" s="100" t="s">
+      <c r="D18" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AF18" s="100" t="s">
+      <c r="G18" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="101" t="s">
         <v>275</v>
       </c>
+      <c r="K18" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="M18" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="N18" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="O18" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="P18" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q18" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="R18" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC18" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF18" s="102" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="N19" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="O19" s="101" t="s">
-        <v>282</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="S19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="T19" s="101" t="s">
-        <v>282</v>
-      </c>
-      <c r="U19" s="101" t="s">
-        <v>284</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="X19" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z19" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB19" s="101" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD19" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF19" s="20" t="s">
-        <v>281</v>
+      <c r="A19" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="N19" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="O19" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="T19" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="U19" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="V19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="W19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="X19" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z19" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB19" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD19" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF19" s="22" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="A20" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="AB20" s="101"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="AB20" s="103"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B21" s="102" t="n">
+      <c r="A21" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C21" s="102" t="n">
+      <c r="C21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D21" s="102" t="n">
+      <c r="D21" s="104" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E21" s="102" t="n">
+      <c r="E21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F21" s="102" t="n">
+      <c r="F21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G21" s="103" t="n">
+      <c r="G21" s="105" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H21" s="102" t="n">
+      <c r="H21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I21" s="102" t="n">
+      <c r="I21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="J21" s="102" t="n">
+      <c r="J21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K21" s="103" t="n">
+      <c r="K21" s="105" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L21" s="102" t="n">
+      <c r="L21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M21" s="102" t="n">
+      <c r="M21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N21" s="102" t="n">
+      <c r="N21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O21" s="102" t="n">
+      <c r="O21" s="104" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P21" s="102" t="n">
+      <c r="P21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="102" t="n">
+      <c r="Q21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="R21" s="102" t="n">
+      <c r="R21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="S21" s="102" t="n">
+      <c r="S21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T21" s="102" t="n">
+      <c r="T21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U21" s="102" t="n">
+      <c r="U21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V21" s="102" t="n">
+      <c r="V21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W21" s="102" t="n">
+      <c r="W21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X21" s="102" t="n">
+      <c r="X21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="102" t="n">
+      <c r="Y21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="102" t="n">
+      <c r="Z21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="102" t="n">
+      <c r="AA21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="102" t="n">
+      <c r="AB21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="102" t="n">
+      <c r="AC21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="102" t="n">
+      <c r="AD21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="102" t="n">
+      <c r="AE21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="102" t="n">
+      <c r="AF21" s="104" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7932,17 +8185,17 @@
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A12:X12 BM12:AMJ12 Z12:AF12">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"False"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM2:AMJ10 A2:AF10">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"False"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/months/oct23/oct23.xlsx
+++ b/months/oct23/oct23.xlsx
@@ -186,7 +186,7 @@
     <t xml:space="preserve">23:50</t>
   </si>
   <si>
-    <t xml:space="preserve">Lza, Eza</t>
+    <t xml:space="preserve">ELza</t>
   </si>
   <si>
     <t xml:space="preserve">Lh, Eh</t>
@@ -657,46 +657,46 @@
     <t xml:space="preserve">child</t>
   </si>
   <si>
+    <t xml:space="preserve">0.35*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"T": "-0.25*", "F": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d24</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.25*</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30*</t>
+    <t xml:space="preserve">0.1*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weak</t>
   </si>
   <si>
     <t xml:space="preserve">0.15*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"T": "-0.25*", "F": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weak</t>
   </si>
   <si>
     <t xml:space="preserve">0.20*</t>
@@ -925,7 +925,7 @@
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -984,6 +984,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1132,7 +1138,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1145,14 +1151,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1321,27 +1327,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1691,10 +1677,10 @@
   </sheetPr>
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="V33" activeCellId="0" sqref="V33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1941,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>45201</v>
       </c>
@@ -1951,7 +1937,7 @@
       <c r="C3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -2179,7 +2165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>45203</v>
       </c>
@@ -2189,7 +2175,7 @@
       <c r="C5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -2298,7 +2284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>45204</v>
       </c>
@@ -2308,7 +2294,7 @@
       <c r="C6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -2417,7 +2403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>45205</v>
       </c>
@@ -2427,7 +2413,7 @@
       <c r="C7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="0" t="s">
@@ -2536,7 +2522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>45206</v>
       </c>
@@ -2546,7 +2532,7 @@
       <c r="C8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -2774,7 +2760,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>45208</v>
       </c>
@@ -2784,7 +2770,7 @@
       <c r="C10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="0" t="s">
@@ -2893,7 +2879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>45209</v>
       </c>
@@ -2903,7 +2889,7 @@
       <c r="C11" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="0" t="s">
@@ -3012,7 +2998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>45210</v>
       </c>
@@ -3022,7 +3008,7 @@
       <c r="C12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="0" t="s">
@@ -3131,7 +3117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>45211</v>
       </c>
@@ -3141,7 +3127,7 @@
       <c r="C13" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -3369,7 +3355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>45213</v>
       </c>
@@ -3379,7 +3365,7 @@
       <c r="C15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
@@ -3607,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>45215</v>
       </c>
@@ -3617,7 +3603,7 @@
       <c r="C17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -3726,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>45216</v>
       </c>
@@ -3736,7 +3722,7 @@
       <c r="C18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="0" t="s">
@@ -3964,7 +3950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>45218</v>
       </c>
@@ -3974,7 +3960,7 @@
       <c r="C20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="0" t="s">
@@ -4083,7 +4069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>45219</v>
       </c>
@@ -4093,7 +4079,7 @@
       <c r="C21" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="0" t="s">
@@ -4202,7 +4188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>45220</v>
       </c>
@@ -4321,7 +4307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>45221</v>
       </c>
@@ -4331,7 +4317,7 @@
       <c r="C23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="0" t="s">
@@ -4559,7 +4545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>45223</v>
       </c>
@@ -4569,7 +4555,7 @@
       <c r="C25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="0" t="s">
@@ -4678,7 +4664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>45224</v>
       </c>
@@ -4688,7 +4674,7 @@
       <c r="C26" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="0" t="s">
@@ -4797,7 +4783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>45225</v>
       </c>
@@ -4807,7 +4793,7 @@
       <c r="C27" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="0" t="s">
@@ -5035,7 +5021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>45227</v>
       </c>
@@ -5045,7 +5031,7 @@
       <c r="C29" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="0" t="s">
@@ -5283,7 +5269,7 @@
       <c r="C31" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="0" t="s">
@@ -5402,7 +5388,7 @@
       <c r="C32" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="0" t="s">
@@ -5483,7 +5469,7 @@
       <c r="AD32" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="AE32" s="3" t="s">
+      <c r="AE32" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AF32" s="0" t="s">
@@ -5501,7 +5487,7 @@
       <c r="AJ32" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AK32" s="4" t="s">
+      <c r="AK32" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AL32" s="0" t="s">
@@ -6482,11 +6468,11 @@
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="AG4" activeCellId="0" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6825,91 +6811,91 @@
       <c r="C4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="50" t="s">
+      <c r="L4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="M4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="N4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="P4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="Q4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="R4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="S4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="T4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="V4" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="W4" s="51" t="s">
+      <c r="U4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="V4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="W4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="Z4" s="50" t="s">
+      <c r="X4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="Y4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="Z4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="AC4" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AA4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AB4" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="AF4" s="50" t="s">
+      <c r="AC4" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD4" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF4" s="47" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6917,836 +6903,836 @@
       <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="T5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="U5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="V5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="W5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="X5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z5" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA5" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF5" s="52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="B6" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="45" t="s">
+      <c r="C6" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="H5" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="M5" s="57" t="s">
+      <c r="D6" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="N5" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="P5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q5" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="R5" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="S5" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="T5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="U5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="V5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="W5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="X5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z5" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA5" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE5" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF5" s="57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
+      <c r="G6" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="H6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="M6" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="61" t="s">
+      <c r="N6" s="57"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="U6" s="61"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB6" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE6" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF6" s="61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="U6" s="66"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB6" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE6" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF6" s="66" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="s">
+      <c r="T7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="U7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="V7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="W7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="X7" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="T7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="U7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="V7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="W7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="X7" s="76" t="s">
+      <c r="Y7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z7" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA7" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE7" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF7" s="72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="Y7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z7" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA7" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE7" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF7" s="77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55" t="s">
+      <c r="B8" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="O8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q8" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="R8" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="S8" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="T8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="U8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="V8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="W8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z8" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA8" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF8" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="M8" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="N8" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="O8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="P8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q8" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="R8" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="S8" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="T8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="U8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="V8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="W8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z8" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA8" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF8" s="72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="78" t="s">
+      <c r="B9" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="81" t="s">
+      <c r="C9" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="I9" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="K9" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="83" t="s">
+      <c r="I9" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="N9" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="O9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="P9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q9" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="R9" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="S9" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="T9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="U9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="V9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="W9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="X9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z9" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA9" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE9" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF9" s="83" t="s">
-        <v>213</v>
+      <c r="N9" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="O9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="P9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q9" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="R9" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="S9" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="T9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="U9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="V9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="W9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="X9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z9" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA9" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE9" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF9" s="78" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="J10" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="K10" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="L10" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="M10" s="90" t="s">
-        <v>217</v>
-      </c>
-      <c r="N10" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="O10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="P10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q10" s="90" t="s">
-        <v>217</v>
-      </c>
-      <c r="R10" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="S10" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="T10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="U10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="X10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z10" s="90" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA10" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF10" s="90" t="s">
-        <v>217</v>
+      <c r="B10" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="M10" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="N10" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="O10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="R10" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="S10" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="T10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="U10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="X10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z10" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA10" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE10" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF10" s="85" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="93" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93" t="s">
+      <c r="I11" s="88"/>
+      <c r="J11" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94" t="s">
+      <c r="K11" s="88"/>
+      <c r="L11" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="98" t="s">
+      <c r="M11" s="92"/>
+      <c r="N11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98" t="s">
+      <c r="O11" s="93"/>
+      <c r="P11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="Q11" s="97" t="s">
+      <c r="Q11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="R11" s="99" t="s">
+      <c r="R11" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="S11" s="96" t="s">
+      <c r="S11" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="T11" s="96" t="s">
+      <c r="T11" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="X11" s="98" t="s">
+      <c r="X11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="Y11" s="98" t="s">
+      <c r="Y11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="Z11" s="98" t="s">
+      <c r="Z11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="AA11" s="96" t="s">
+      <c r="AA11" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="AB11" s="96" t="s">
+      <c r="AB11" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98" t="s">
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="AE11" s="98" t="s">
+      <c r="AE11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="AF11" s="98" t="s">
+      <c r="AF11" s="93" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="93" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93" t="s">
+      <c r="I12" s="88"/>
+      <c r="J12" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94" t="s">
+      <c r="K12" s="88"/>
+      <c r="L12" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="M12" s="97"/>
-      <c r="N12" s="98" t="s">
+      <c r="M12" s="92"/>
+      <c r="N12" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98" t="s">
+      <c r="O12" s="93"/>
+      <c r="P12" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="Q12" s="97" t="s">
+      <c r="Q12" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="R12" s="99" t="s">
+      <c r="R12" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="S12" s="96" t="s">
+      <c r="S12" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="T12" s="96" t="s">
+      <c r="T12" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98" t="s">
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="X12" s="98" t="s">
+      <c r="X12" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="Y12" s="98" t="s">
+      <c r="Y12" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="98" t="s">
+      <c r="Z12" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="AA12" s="96" t="s">
+      <c r="AA12" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="AB12" s="96" t="s">
+      <c r="AB12" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98" t="s">
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="AE12" s="98" t="s">
+      <c r="AE12" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="AF12" s="98" t="s">
+      <c r="AF12" s="93" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="93" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="93" t="n">
+      <c r="F13" s="88" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="93" t="n">
+      <c r="H13" s="88" t="n">
         <v>3</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93" t="n">
+      <c r="I13" s="88"/>
+      <c r="J13" s="88" t="n">
         <v>3</v>
       </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94" t="s">
+      <c r="K13" s="88"/>
+      <c r="L13" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="98" t="s">
+      <c r="M13" s="92"/>
+      <c r="N13" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98" t="n">
+      <c r="O13" s="93"/>
+      <c r="P13" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" s="97" t="n">
+      <c r="Q13" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="99" t="s">
+      <c r="R13" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="96" t="n">
+      <c r="S13" s="91" t="n">
         <v>3</v>
       </c>
-      <c r="T13" s="96" t="s">
+      <c r="T13" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98" t="s">
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="X13" s="98" t="n">
+      <c r="X13" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="Y13" s="98" t="s">
+      <c r="Y13" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="98" t="s">
+      <c r="Z13" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="AA13" s="96" t="n">
+      <c r="AA13" s="91" t="n">
         <v>3</v>
       </c>
-      <c r="AB13" s="96" t="s">
+      <c r="AB13" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98" t="n">
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="AE13" s="98" t="s">
+      <c r="AE13" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="AF13" s="98" t="s">
+      <c r="AF13" s="93" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="93" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="93" t="n">
+      <c r="E14" s="88" t="n">
         <v>25</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="93" t="n">
+      <c r="H14" s="88" t="n">
         <v>25</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93" t="s">
+      <c r="I14" s="88"/>
+      <c r="J14" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94" t="n">
+      <c r="K14" s="88"/>
+      <c r="L14" s="89" t="n">
         <v>100</v>
       </c>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98" t="s">
+      <c r="M14" s="92"/>
+      <c r="N14" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98" t="s">
+      <c r="O14" s="93"/>
+      <c r="P14" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="Q14" s="97" t="s">
+      <c r="Q14" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="R14" s="99" t="s">
+      <c r="R14" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="S14" s="96" t="s">
+      <c r="S14" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="T14" s="96" t="s">
+      <c r="T14" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98" t="s">
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="X14" s="98" t="n">
+      <c r="X14" s="93" t="n">
         <v>25</v>
       </c>
-      <c r="Y14" s="98" t="s">
+      <c r="Y14" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="Z14" s="98" t="s">
+      <c r="Z14" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="AA14" s="96" t="s">
+      <c r="AA14" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="AB14" s="96" t="s">
+      <c r="AB14" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98" t="s">
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="AE14" s="98" t="s">
+      <c r="AE14" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="AF14" s="98" t="s">
+      <c r="AF14" s="93" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="95" t="s">
         <v>238</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -7834,7 +7820,7 @@
       <c r="C17" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="96" t="s">
         <v>252</v>
       </c>
       <c r="E17" s="22" t="s">
@@ -7843,55 +7829,55 @@
       <c r="F17" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="101" t="s">
+      <c r="G17" s="96" t="s">
         <v>255</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="I17" s="101" t="s">
+      <c r="I17" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="J17" s="101" t="s">
+      <c r="J17" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="K17" s="101" t="s">
+      <c r="K17" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="L17" s="101" t="s">
+      <c r="L17" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="M17" s="101" t="s">
+      <c r="M17" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="N17" s="101" t="s">
+      <c r="N17" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="O17" s="101" t="s">
+      <c r="O17" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="P17" s="101" t="s">
+      <c r="P17" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="Q17" s="101" t="s">
+      <c r="Q17" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="R17" s="101" t="s">
+      <c r="R17" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="AA17" s="101" t="s">
+      <c r="AA17" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="AB17" s="101" t="s">
+      <c r="AB17" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="AC17" s="101" t="s">
+      <c r="AC17" s="96" t="s">
         <v>269</v>
       </c>
       <c r="AD17" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="AE17" s="101" t="s">
+      <c r="AE17" s="96" t="s">
         <v>271</v>
       </c>
       <c r="AF17" s="22" t="s">
@@ -7902,40 +7888,40 @@
       <c r="A18" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="G18" s="102" t="s">
+      <c r="G18" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="K18" s="101" t="s">
+      <c r="K18" s="96" t="s">
         <v>276</v>
       </c>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="N18" s="102" t="s">
+      <c r="N18" s="97" t="s">
         <v>278</v>
       </c>
-      <c r="O18" s="101" t="s">
+      <c r="O18" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="P18" s="102" t="s">
+      <c r="P18" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="102" t="s">
+      <c r="Q18" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="R18" s="102" t="s">
+      <c r="R18" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="AC18" s="102" t="s">
+      <c r="AC18" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="AF18" s="102" t="s">
+      <c r="AF18" s="97" t="s">
         <v>284</v>
       </c>
     </row>
@@ -7979,10 +7965,10 @@
       <c r="M19" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="N19" s="103" t="s">
+      <c r="N19" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="O19" s="103" t="s">
+      <c r="O19" s="98" t="s">
         <v>291</v>
       </c>
       <c r="P19" s="22" t="s">
@@ -7997,10 +7983,10 @@
       <c r="S19" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="T19" s="103" t="s">
+      <c r="T19" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="U19" s="103" t="s">
+      <c r="U19" s="98" t="s">
         <v>293</v>
       </c>
       <c r="V19" s="22" t="s">
@@ -8021,7 +8007,7 @@
       <c r="AA19" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="AB19" s="103" t="s">
+      <c r="AB19" s="98" t="s">
         <v>291</v>
       </c>
       <c r="AC19" s="22" t="s">
@@ -8047,137 +8033,137 @@
       <c r="G20" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="AB20" s="103"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="AB20" s="98"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="104" t="n">
+      <c r="B21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C21" s="104" t="n">
+      <c r="C21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D21" s="104" t="n">
+      <c r="D21" s="99" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E21" s="104" t="n">
+      <c r="E21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F21" s="104" t="n">
+      <c r="F21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G21" s="105" t="n">
+      <c r="G21" s="100" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H21" s="104" t="n">
+      <c r="H21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I21" s="104" t="n">
+      <c r="I21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="J21" s="104" t="n">
+      <c r="J21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K21" s="105" t="n">
+      <c r="K21" s="100" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L21" s="104" t="n">
+      <c r="L21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M21" s="104" t="n">
+      <c r="M21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N21" s="104" t="n">
+      <c r="N21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O21" s="104" t="n">
+      <c r="O21" s="99" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P21" s="104" t="n">
+      <c r="P21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="104" t="n">
+      <c r="Q21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="R21" s="104" t="n">
+      <c r="R21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="S21" s="104" t="n">
+      <c r="S21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T21" s="104" t="n">
+      <c r="T21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U21" s="104" t="n">
+      <c r="U21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V21" s="104" t="n">
+      <c r="V21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W21" s="104" t="n">
+      <c r="W21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X21" s="104" t="n">
+      <c r="X21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="104" t="n">
+      <c r="Y21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="104" t="n">
+      <c r="Z21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="104" t="n">
+      <c r="AA21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="104" t="n">
+      <c r="AB21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="104" t="n">
+      <c r="AC21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="104" t="n">
+      <c r="AD21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="104" t="n">
+      <c r="AE21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="104" t="n">
+      <c r="AF21" s="99" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/months/oct23/oct23.xlsx
+++ b/months/oct23/oct23.xlsx
@@ -925,7 +925,7 @@
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -984,12 +984,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1138,7 +1132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1324,10 +1318,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6468,11 +6458,11 @@
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG4" activeCellId="0" sqref="AG4"/>
+      <selection pane="bottomRight" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6808,94 +6798,94 @@
       <c r="B4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="P4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="Q4" s="47" t="s">
+      <c r="Q4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="U4" s="47" t="s">
+      <c r="U4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="V4" s="47" t="s">
+      <c r="V4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="W4" s="47" t="s">
+      <c r="W4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="X4" s="47" t="s">
+      <c r="X4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="Y4" s="47" t="s">
+      <c r="Y4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="Z4" s="47" t="s">
+      <c r="Z4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="AA4" s="47" t="s">
+      <c r="AA4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="AB4" s="47" t="s">
+      <c r="AB4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="AC4" s="47" t="s">
+      <c r="AC4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="AD4" s="47" t="s">
+      <c r="AD4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="AE4" s="47" t="s">
+      <c r="AE4" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="AF4" s="47" t="s">
+      <c r="AF4" s="46" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6903,10 +6893,10 @@
       <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>212</v>
       </c>
       <c r="D5" s="45" t="s">
@@ -6915,824 +6905,824 @@
       <c r="E5" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="45" t="s">
         <v>213</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="49"/>
       <c r="K5" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="Q5" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="R5" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="U5" s="54" t="s">
+      <c r="U5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="V5" s="54" t="s">
+      <c r="V5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="W5" s="54" t="s">
+      <c r="W5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="X5" s="54" t="s">
+      <c r="X5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="Y5" s="54" t="s">
+      <c r="Y5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="Z5" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="AA5" s="53" t="s">
+      <c r="AA5" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AC5" s="54" t="s">
+      <c r="AC5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AD5" s="54" t="s">
+      <c r="AD5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AE5" s="54" t="s">
+      <c r="AE5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AF5" s="51" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="61" t="s">
+      <c r="N6" s="56"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="U6" s="61"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="61" t="s">
+      <c r="U6" s="60"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="63" t="s">
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="AB6" s="61" t="s">
+      <c r="AB6" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="61" t="s">
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="AE6" s="61" t="s">
+      <c r="AE6" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="AF6" s="61" t="s">
+      <c r="AF6" s="60" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="70" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="T7" s="71" t="s">
+      <c r="T7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="71" t="s">
+      <c r="U7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="V7" s="71" t="s">
+      <c r="V7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="W7" s="71" t="s">
+      <c r="W7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="X7" s="71" t="s">
+      <c r="X7" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="Y7" s="71" t="s">
+      <c r="Y7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="Z7" s="72" t="s">
+      <c r="Z7" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="AA7" s="70" t="s">
+      <c r="AA7" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="AB7" s="71" t="s">
+      <c r="AB7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="AC7" s="71" t="s">
+      <c r="AC7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="AD7" s="71" t="s">
+      <c r="AD7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="AE7" s="71" t="s">
+      <c r="AE7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="AF7" s="72" t="s">
+      <c r="AF7" s="71" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50" t="s">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="N8" s="66" t="s">
+      <c r="N8" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="O8" s="68" t="s">
+      <c r="O8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="P8" s="68" t="s">
+      <c r="P8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="Q8" s="67" t="s">
+      <c r="Q8" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="R8" s="69" t="s">
+      <c r="R8" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="S8" s="66" t="s">
+      <c r="S8" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="T8" s="68" t="s">
+      <c r="T8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="U8" s="68" t="s">
+      <c r="U8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="V8" s="68" t="s">
+      <c r="V8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="W8" s="68" t="s">
+      <c r="W8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68" t="s">
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="Z8" s="67" t="s">
+      <c r="Z8" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="AA8" s="66" t="s">
+      <c r="AA8" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="AB8" s="68" t="s">
+      <c r="AB8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="AC8" s="68" t="s">
+      <c r="AC8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68" t="s">
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="AF8" s="67" t="s">
+      <c r="AF8" s="66" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="G9" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" s="76" t="s">
+      <c r="J9" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="N9" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="O9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="P9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="L9" s="74" t="s">
+      <c r="Q9" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="M9" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="N9" s="77" t="s">
+      <c r="R9" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="79" t="s">
+      <c r="S9" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="P9" s="79" t="s">
+      <c r="T9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="Q9" s="78" t="s">
+      <c r="U9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="R9" s="80" t="s">
+      <c r="V9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="S9" s="77" t="s">
+      <c r="W9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="T9" s="79" t="s">
+      <c r="X9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="U9" s="79" t="s">
+      <c r="Y9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="V9" s="79" t="s">
+      <c r="Z9" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="W9" s="79" t="s">
+      <c r="AA9" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="X9" s="79" t="s">
+      <c r="AB9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="Y9" s="79" t="s">
+      <c r="AC9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="Z9" s="78" t="s">
+      <c r="AD9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="AA9" s="77" t="s">
+      <c r="AE9" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="AB9" s="79" t="s">
+      <c r="AF9" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="AC9" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD9" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE9" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF9" s="78" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="M10" s="85" t="s">
+      <c r="M10" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="N10" s="84" t="s">
+      <c r="N10" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="O10" s="86" t="s">
+      <c r="O10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="P10" s="86" t="s">
+      <c r="P10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="Q10" s="85" t="s">
+      <c r="Q10" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="R10" s="87" t="s">
+      <c r="R10" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="S10" s="84" t="s">
+      <c r="S10" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="T10" s="86" t="s">
+      <c r="T10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="U10" s="86" t="s">
+      <c r="U10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86" t="s">
+      <c r="V10" s="85"/>
+      <c r="W10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="X10" s="86" t="s">
+      <c r="X10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="Y10" s="86" t="s">
+      <c r="Y10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="Z10" s="85" t="s">
+      <c r="Z10" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="AA10" s="84" t="s">
+      <c r="AA10" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="AB10" s="86" t="s">
+      <c r="AB10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86" t="s">
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="AE10" s="86" t="s">
+      <c r="AE10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="AF10" s="85" t="s">
+      <c r="AF10" s="84" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="88" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88" t="s">
+      <c r="I11" s="87"/>
+      <c r="J11" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89" t="s">
+      <c r="K11" s="87"/>
+      <c r="L11" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93" t="s">
+      <c r="M11" s="91"/>
+      <c r="N11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93" t="s">
+      <c r="O11" s="92"/>
+      <c r="P11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="Q11" s="92" t="s">
+      <c r="Q11" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="R11" s="94" t="s">
+      <c r="R11" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="S11" s="91" t="s">
+      <c r="S11" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="T11" s="91" t="s">
+      <c r="T11" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93" t="s">
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="X11" s="93" t="s">
+      <c r="X11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="Y11" s="93" t="s">
+      <c r="Y11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="Z11" s="93" t="s">
+      <c r="Z11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="AA11" s="91" t="s">
+      <c r="AA11" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="AB11" s="91" t="s">
+      <c r="AB11" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93" t="s">
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="AE11" s="93" t="s">
+      <c r="AE11" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="AF11" s="93" t="s">
+      <c r="AF11" s="92" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="88" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88" t="s">
+      <c r="I12" s="87"/>
+      <c r="J12" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89" t="s">
+      <c r="K12" s="87"/>
+      <c r="L12" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="93" t="s">
+      <c r="M12" s="91"/>
+      <c r="N12" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93" t="s">
+      <c r="O12" s="92"/>
+      <c r="P12" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="Q12" s="92" t="s">
+      <c r="Q12" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="R12" s="94" t="s">
+      <c r="R12" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="S12" s="91" t="s">
+      <c r="S12" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="T12" s="91" t="s">
+      <c r="T12" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93" t="s">
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="X12" s="93" t="s">
+      <c r="X12" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="Y12" s="93" t="s">
+      <c r="Y12" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="93" t="s">
+      <c r="Z12" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="AA12" s="91" t="s">
+      <c r="AA12" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="AB12" s="91" t="s">
+      <c r="AB12" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93" t="s">
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="AE12" s="93" t="s">
+      <c r="AE12" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="AF12" s="93" t="s">
+      <c r="AF12" s="92" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="88" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="88" t="n">
+      <c r="F13" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="88" t="n">
+      <c r="H13" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88" t="n">
+      <c r="I13" s="87"/>
+      <c r="J13" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89" t="s">
+      <c r="K13" s="87"/>
+      <c r="L13" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93" t="s">
+      <c r="M13" s="91"/>
+      <c r="N13" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93" t="n">
+      <c r="O13" s="92"/>
+      <c r="P13" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" s="92" t="n">
+      <c r="Q13" s="91" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="94" t="s">
+      <c r="R13" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="91" t="n">
+      <c r="S13" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="T13" s="91" t="s">
+      <c r="T13" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93" t="s">
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="X13" s="93" t="n">
+      <c r="X13" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="Y13" s="93" t="s">
+      <c r="Y13" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="93" t="s">
+      <c r="Z13" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="AA13" s="91" t="n">
+      <c r="AA13" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="AB13" s="91" t="s">
+      <c r="AB13" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93" t="n">
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="AE13" s="93" t="s">
+      <c r="AE13" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="AF13" s="93" t="s">
+      <c r="AF13" s="92" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="88" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="88" t="n">
+      <c r="E14" s="87" t="n">
         <v>25</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="88" t="n">
+      <c r="H14" s="87" t="n">
         <v>25</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88" t="s">
+      <c r="I14" s="87"/>
+      <c r="J14" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89" t="n">
+      <c r="K14" s="87"/>
+      <c r="L14" s="88" t="n">
         <v>100</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93" t="s">
+      <c r="M14" s="91"/>
+      <c r="N14" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93" t="s">
+      <c r="O14" s="92"/>
+      <c r="P14" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="Q14" s="92" t="s">
+      <c r="Q14" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="R14" s="94" t="s">
+      <c r="R14" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="S14" s="91" t="s">
+      <c r="S14" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="T14" s="91" t="s">
+      <c r="T14" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93" t="s">
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="X14" s="93" t="n">
+      <c r="X14" s="92" t="n">
         <v>25</v>
       </c>
-      <c r="Y14" s="93" t="s">
+      <c r="Y14" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="Z14" s="93" t="s">
+      <c r="Z14" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="AA14" s="91" t="s">
+      <c r="AA14" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="AB14" s="91" t="s">
+      <c r="AB14" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93" t="s">
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="AE14" s="93" t="s">
+      <c r="AE14" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="AF14" s="93" t="s">
+      <c r="AF14" s="92" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="94" t="s">
         <v>238</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -7820,7 +7810,7 @@
       <c r="C17" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="95" t="s">
         <v>252</v>
       </c>
       <c r="E17" s="22" t="s">
@@ -7829,55 +7819,55 @@
       <c r="F17" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="95" t="s">
         <v>255</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="I17" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="J17" s="96" t="s">
+      <c r="J17" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="K17" s="96" t="s">
+      <c r="K17" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="L17" s="96" t="s">
+      <c r="L17" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="M17" s="96" t="s">
+      <c r="M17" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="N17" s="96" t="s">
+      <c r="N17" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="O17" s="96" t="s">
+      <c r="O17" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="P17" s="96" t="s">
+      <c r="P17" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="Q17" s="96" t="s">
+      <c r="Q17" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="R17" s="96" t="s">
+      <c r="R17" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="AA17" s="96" t="s">
+      <c r="AA17" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="AB17" s="96" t="s">
+      <c r="AB17" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="AC17" s="96" t="s">
+      <c r="AC17" s="95" t="s">
         <v>269</v>
       </c>
       <c r="AD17" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="AE17" s="96" t="s">
+      <c r="AE17" s="95" t="s">
         <v>271</v>
       </c>
       <c r="AF17" s="22" t="s">
@@ -7888,40 +7878,40 @@
       <c r="A18" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="95" t="s">
         <v>275</v>
       </c>
-      <c r="K18" s="96" t="s">
+      <c r="K18" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="M18" s="97" t="s">
+      <c r="M18" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="N18" s="97" t="s">
+      <c r="N18" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="O18" s="96" t="s">
+      <c r="O18" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="P18" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="97" t="s">
+      <c r="Q18" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="R18" s="97" t="s">
+      <c r="R18" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="AC18" s="97" t="s">
+      <c r="AC18" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="AF18" s="97" t="s">
+      <c r="AF18" s="96" t="s">
         <v>284</v>
       </c>
     </row>
@@ -7965,10 +7955,10 @@
       <c r="M19" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="N19" s="98" t="s">
+      <c r="N19" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="O19" s="98" t="s">
+      <c r="O19" s="97" t="s">
         <v>291</v>
       </c>
       <c r="P19" s="22" t="s">
@@ -7983,10 +7973,10 @@
       <c r="S19" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="T19" s="98" t="s">
+      <c r="T19" s="97" t="s">
         <v>291</v>
       </c>
-      <c r="U19" s="98" t="s">
+      <c r="U19" s="97" t="s">
         <v>293</v>
       </c>
       <c r="V19" s="22" t="s">
@@ -8007,7 +7997,7 @@
       <c r="AA19" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="AB19" s="98" t="s">
+      <c r="AB19" s="97" t="s">
         <v>291</v>
       </c>
       <c r="AC19" s="22" t="s">
@@ -8033,137 +8023,137 @@
       <c r="G20" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="AB20" s="98"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="AB20" s="97"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="99" t="n">
+      <c r="B21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C21" s="99" t="n">
+      <c r="C21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D21" s="99" t="n">
+      <c r="D21" s="98" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E21" s="99" t="n">
+      <c r="E21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F21" s="99" t="n">
+      <c r="F21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G21" s="100" t="n">
+      <c r="G21" s="99" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H21" s="99" t="n">
+      <c r="H21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I21" s="99" t="n">
+      <c r="I21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="J21" s="99" t="n">
+      <c r="J21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K21" s="100" t="n">
+      <c r="K21" s="99" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L21" s="99" t="n">
+      <c r="L21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M21" s="99" t="n">
+      <c r="M21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N21" s="99" t="n">
+      <c r="N21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O21" s="99" t="n">
+      <c r="O21" s="98" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P21" s="99" t="n">
+      <c r="P21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="99" t="n">
+      <c r="Q21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="R21" s="99" t="n">
+      <c r="R21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="S21" s="99" t="n">
+      <c r="S21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T21" s="99" t="n">
+      <c r="T21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U21" s="99" t="n">
+      <c r="U21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V21" s="99" t="n">
+      <c r="V21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W21" s="99" t="n">
+      <c r="W21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X21" s="99" t="n">
+      <c r="X21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="99" t="n">
+      <c r="Y21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="99" t="n">
+      <c r="Z21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="99" t="n">
+      <c r="AA21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="99" t="n">
+      <c r="AB21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="99" t="n">
+      <c r="AC21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="99" t="n">
+      <c r="AD21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="99" t="n">
+      <c r="AE21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="99" t="n">
+      <c r="AF21" s="98" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
